--- a/Kitap Veri Seti.xlsx
+++ b/Kitap Veri Seti.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\deneme3\bookDataRaw\bookDataRaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$P$176</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>Kitap Adı</t>
   </si>
@@ -459,6 +462,207 @@
   </si>
   <si>
     <t>8-10</t>
+  </si>
+  <si>
+    <t>Ahmed Günbay Yıldız - Leyi Işıkları</t>
+  </si>
+  <si>
+    <t>Ahmed Günbay Yıldız - Yanık Buğdaylar</t>
+  </si>
+  <si>
+    <t>Ahmed Hulusi - Dosttan Dosta</t>
+  </si>
+  <si>
+    <t>Ahmed Hulusi - Hz Muhammed Neyi Okudu</t>
+  </si>
+  <si>
+    <t>Ahmed Hulusi - İnsan ve Sırları 1</t>
+  </si>
+  <si>
+    <t>Ahmed Hulusi - İnsan ve Sırları 2</t>
+  </si>
+  <si>
+    <t>Ahmed Refik - Lale Devri</t>
+  </si>
+  <si>
+    <t>Ahmed Ziyauddin - Kıyamet Alametleri</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - Aldatmak</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - İçimizde Bir Yer</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - İsyan Günlerinde Aşk</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - Karanlıkta Savaş Kuşları</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - Kılıç Yarası Gibi</t>
+  </si>
+  <si>
+    <t>Ahmet Altan - Kırar Göğsüne Bastırırken</t>
+  </si>
+  <si>
+    <t>Ahmet Aydın - Diyet</t>
+  </si>
+  <si>
+    <t>Ahmet Demirhan - Modernlik</t>
+  </si>
+  <si>
+    <t>Ahmet Efe - Nasıl Öldürüldüler</t>
+  </si>
+  <si>
+    <t>Ahmet Günbay Yıldız - Günahın Rengi</t>
+  </si>
+  <si>
+    <t>Ahmet Hamdi Tanpınar - Huzur</t>
+  </si>
+  <si>
+    <t>Ahmet Karcılılar - Yağmur Hüznü</t>
+  </si>
+  <si>
+    <t>Ahmet Muhtar Büyükçınar - Hayat Kitabı 2</t>
+  </si>
+  <si>
+    <t>Ahmet Şerif İzgören - Dikkat Vucudunuz konusuyor</t>
+  </si>
+  <si>
+    <t>Ahmet Şerif İzgören - Şu Hortumlu Dünyada Fil Yalnız Bir Hayvandır</t>
+  </si>
+  <si>
+    <t>Ahmet Talat Paşa - Talat Paşa'nın Hatıraları</t>
+  </si>
+  <si>
+    <t>Ahmet Tomor - Ölüm Ve Ötesi</t>
+  </si>
+  <si>
+    <t>Ahmet Umit - Ask Kopekliktir</t>
+  </si>
+  <si>
+    <t>Ahmet Umit - Bab-i Esrar</t>
+  </si>
+  <si>
+    <t>Ahmet Umit - Kavim</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Agatha'nın Anahtarı</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Beyoğlu Rapsodisi</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Bir Ses Böler Geceyi</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Kar Kokusu</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Kukla</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Ninatta'nın Bileziği</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Patasana</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Sis ve Gece</t>
+  </si>
+  <si>
+    <t>Ahmet Ümit - Şeytan Ayrıntıda Gizlidir</t>
+  </si>
+  <si>
+    <t>Ahmet Yılmaz Boyunağa - Kırık Hançer</t>
+  </si>
+  <si>
+    <t>Ahmet Yüksel Özemre - Çernobil Komplosu</t>
+  </si>
+  <si>
+    <t>Akif Pirinççi - Cave Canem</t>
+  </si>
+  <si>
+    <t>Akif Pirinççi - Düello</t>
+  </si>
+  <si>
+    <t>Akif Pirinççi - Felidae1</t>
+  </si>
+  <si>
+    <t>Akif Pirinççi - Felidae2</t>
+  </si>
+  <si>
+    <t>Akif Pirinççi - Gövde</t>
+  </si>
+  <si>
+    <t>Akşemseddin - Makamat-i Evliya</t>
+  </si>
+  <si>
+    <t>Ali Bulaç - İslam ve Demokrasi  Teokrasi, Totaliterizm</t>
+  </si>
+  <si>
+    <t>Ali Demirsoy - Bu Ülkenin İnsanları Evrim Kavramından ne Anlıyor</t>
+  </si>
+  <si>
+    <t>Ali Yildirim - Bir Celladin Anilari - Ali Yildirim</t>
+  </si>
+  <si>
+    <t>Ali Yildirim - Osmanli Engizisyonu Zulmun Tarihi</t>
+  </si>
+  <si>
+    <t>Aliyar Dengiz - Baba Ogul Ve Hayal</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Anıtı Dikilen Sinek</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Bay Duduk</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Bir Koltuk Nasil Devrilir</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Borclu Olduklarimiz</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Damda Deli Var</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Gerçeğin Masalı</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Istanbul'un Halleri</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Kazan Toreni</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Memleketin Birinde</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Rifat Bey Neden Kasiniyor</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Simdi Avrupa</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Simdiki Cocuklar Harika</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Sizin Memlekette Esek Yokmu</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Tatli Betus</t>
+  </si>
+  <si>
+    <t>Aziz Nesin - Zubuklugun Sonu Yok</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>12-16</t>
   </si>
 </sst>
 </file>
@@ -822,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="P174" sqref="P174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,825 +1089,825 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>6833</v>
+        <v>408</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>7318</v>
+        <v>418</v>
       </c>
       <c r="E2">
-        <v>97840</v>
+        <v>36650</v>
       </c>
       <c r="F2">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>98083</v>
+        <v>36656</v>
       </c>
       <c r="H2">
-        <v>0.93372506149221102</v>
+        <v>0.97607655502392343</v>
       </c>
       <c r="I2">
-        <v>14.088659793814429</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J2">
-        <v>13.402978955998909</v>
+        <v>87.693779904306226</v>
       </c>
       <c r="K2">
-        <v>5.9016649164483139</v>
+        <v>4.9128655608904408</v>
       </c>
       <c r="L2">
-        <v>6.627493850778901</v>
+        <v>2.392344497607656</v>
       </c>
       <c r="M2">
-        <v>93.372506149221095</v>
+        <v>97.607655502392348</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>230.33139164146581</v>
       </c>
       <c r="O2">
-        <v>2.6436697453391389E-7</v>
+        <v>6.1146300286054611E-3</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>4010</v>
+        <v>390</v>
       </c>
       <c r="C3">
-        <v>614</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>4624</v>
+        <v>399</v>
       </c>
       <c r="E3">
-        <v>110913</v>
+        <v>28151</v>
       </c>
       <c r="F3">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>111306</v>
+        <v>28160</v>
       </c>
       <c r="H3">
-        <v>0.86721453287197237</v>
+        <v>0.97744360902255634</v>
       </c>
       <c r="I3">
-        <v>6.5309446254071659</v>
+        <v>43.333333333333343</v>
       </c>
       <c r="J3">
-        <v>24.071366782006919</v>
+        <v>70.576441102756888</v>
       </c>
       <c r="K3">
-        <v>5.8070095053276551</v>
+        <v>5.150390625</v>
       </c>
       <c r="L3">
-        <v>13.27854671280277</v>
+        <v>2.255639097744361</v>
       </c>
       <c r="M3">
-        <v>86.721453287197235</v>
+        <v>97.744360902255636</v>
       </c>
       <c r="N3">
-        <v>28.35466042449951</v>
+        <v>176.1125679188205</v>
       </c>
       <c r="O3">
-        <v>4.8367786575909122E-7</v>
+        <v>5.568968877196312E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>1203</v>
+        <v>273</v>
       </c>
       <c r="C4">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1582</v>
+        <v>285</v>
       </c>
       <c r="E4">
-        <v>82767</v>
+        <v>27904</v>
       </c>
       <c r="F4">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>82986</v>
+        <v>27911</v>
       </c>
       <c r="H4">
-        <v>0.76042983565107458</v>
+        <v>0.95789473684210524</v>
       </c>
       <c r="I4">
-        <v>3.1741424802110818</v>
+        <v>22.75</v>
       </c>
       <c r="J4">
-        <v>52.456384323640961</v>
+        <v>97.933333333333337</v>
       </c>
       <c r="K4">
-        <v>5.9028269828645792</v>
+        <v>5.1797857475547273</v>
       </c>
       <c r="L4">
-        <v>23.957016434892541</v>
+        <v>4.2105263157894726</v>
       </c>
       <c r="M4">
-        <v>76.042983565107463</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="N4">
-        <v>98.590089048118443</v>
+        <v>246.33310759198881</v>
       </c>
       <c r="O4">
-        <v>1.3667012410678581E-7</v>
+        <v>5.5390265770256519E-3</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>589</v>
+        <v>498</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="E5">
-        <v>100720</v>
+        <v>45255</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5">
-        <v>100728</v>
+        <v>45263</v>
       </c>
       <c r="H5">
-        <v>0.98166666666666669</v>
+        <v>0.98031496062992129</v>
       </c>
       <c r="I5">
-        <v>53.545454545454547</v>
+        <v>49.8</v>
       </c>
       <c r="J5">
-        <v>167.88</v>
+        <v>89.100393700787407</v>
       </c>
       <c r="K5">
-        <v>5.4387657850845841</v>
+        <v>4.6417603782338777</v>
       </c>
       <c r="L5">
-        <v>1.833333333333333</v>
+        <v>1.9685039370078741</v>
       </c>
       <c r="M5">
-        <v>98.166666666666671</v>
+        <v>98.031496062992119</v>
       </c>
       <c r="N5">
-        <v>418.4893845842268</v>
+        <v>244.89430436350909</v>
       </c>
       <c r="O5">
-        <v>1.2294560670852659E-2</v>
+        <v>1.1949109612032769E-3</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>522</v>
+        <v>2342</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>533</v>
+        <v>2435</v>
       </c>
       <c r="E6">
-        <v>70999</v>
+        <v>31783</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>71008</v>
+        <v>31831</v>
       </c>
       <c r="H6">
-        <v>0.9793621013133208</v>
+        <v>0.96180698151950716</v>
       </c>
       <c r="I6">
-        <v>47.454545454545453</v>
+        <v>25.182795698924728</v>
       </c>
       <c r="J6">
-        <v>133.22326454033771</v>
+        <v>13.07227926078029</v>
       </c>
       <c r="K6">
-        <v>5.6477861649391619</v>
+        <v>6.0160221168043728</v>
       </c>
       <c r="L6">
-        <v>2.063789868667917</v>
+        <v>3.8193018480492809</v>
       </c>
       <c r="M6">
-        <v>97.936210131332089</v>
+        <v>96.180698151950722</v>
       </c>
       <c r="N6">
-        <v>319.63791127385059</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.6045495644211769E-2</v>
+        <v>5.5610269100725418E-7</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B7">
-        <v>425</v>
+        <v>748</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>434</v>
+        <v>850</v>
       </c>
       <c r="E7">
-        <v>60379</v>
+        <v>10390</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>60384</v>
+        <v>10449</v>
       </c>
       <c r="H7">
-        <v>0.97926267281105994</v>
+        <v>0.88</v>
       </c>
       <c r="I7">
-        <v>47.222222222222221</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J7">
-        <v>139.13364055299539</v>
+        <v>12.29294117647059</v>
       </c>
       <c r="K7">
-        <v>5.6407160837307897</v>
+        <v>6.1093884582256672</v>
       </c>
       <c r="L7">
-        <v>2.0737327188940089</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>97.926267281105993</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>335.34803317943351</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3.1256477814167738E-3</v>
+        <v>8.2868762547150254E-5</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B8">
-        <v>2207</v>
+        <v>915</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>2295</v>
+        <v>991</v>
       </c>
       <c r="E8">
-        <v>20875</v>
+        <v>12825</v>
       </c>
       <c r="F8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>20928</v>
+        <v>12875</v>
       </c>
       <c r="H8">
-        <v>0.96165577342047925</v>
+        <v>0.92330978809283548</v>
       </c>
       <c r="I8">
-        <v>25.07954545454545</v>
+        <v>12.039473684210529</v>
       </c>
       <c r="J8">
-        <v>9.1189542483660126</v>
+        <v>12.991927346115039</v>
       </c>
       <c r="K8">
-        <v>5.7500955657492359</v>
+        <v>6.2310679611650484</v>
       </c>
       <c r="L8">
-        <v>3.8344226579520702</v>
+        <v>7.6690211907164478</v>
       </c>
       <c r="M8">
-        <v>96.165577342047925</v>
+        <v>92.33097880928355</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.9970967413391918E-5</v>
+        <v>9.6766516435309313E-6</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="B9">
-        <v>1734</v>
+        <v>242</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>1775</v>
+        <v>303</v>
       </c>
       <c r="E9">
-        <v>114627</v>
+        <v>9878</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>114657</v>
+        <v>9920</v>
       </c>
       <c r="H9">
-        <v>0.97690140845070428</v>
+        <v>0.79867986798679869</v>
       </c>
       <c r="I9">
-        <v>42.292682926829258</v>
+        <v>3.9672131147540979</v>
       </c>
       <c r="J9">
-        <v>64.595492957746472</v>
+        <v>32.739273927392738</v>
       </c>
       <c r="K9">
-        <v>4.998953400141291</v>
+        <v>6.0848790322580646</v>
       </c>
       <c r="L9">
-        <v>2.3098591549295771</v>
+        <v>20.132013201320131</v>
       </c>
       <c r="M9">
-        <v>97.690140845070417</v>
+        <v>79.867986798679866</v>
       </c>
       <c r="N9">
-        <v>166.5862837690419</v>
+        <v>39.814489829527297</v>
       </c>
       <c r="O9">
-        <v>3.57680544257164E-2</v>
+        <v>2.0323666831245649E-5</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>2529</v>
+        <v>1203</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>379</v>
       </c>
       <c r="D10">
-        <v>2594</v>
+        <v>1582</v>
       </c>
       <c r="E10">
-        <v>103683</v>
+        <v>82767</v>
       </c>
       <c r="F10">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="G10">
-        <v>103756</v>
+        <v>82986</v>
       </c>
       <c r="H10">
-        <v>0.97494217424826524</v>
+        <v>0.76042983565107458</v>
       </c>
       <c r="I10">
-        <v>38.907692307692308</v>
+        <v>3.1741424802110818</v>
       </c>
       <c r="J10">
-        <v>39.998457979953741</v>
+        <v>52.456384323640961</v>
       </c>
       <c r="K10">
-        <v>2.4691969621033958</v>
+        <v>5.9028269828645792</v>
       </c>
       <c r="L10">
-        <v>2.5057825751734768</v>
+        <v>23.957016434892541</v>
       </c>
       <c r="M10">
-        <v>97.494217424826516</v>
+        <v>76.042983565107463</v>
       </c>
       <c r="N10">
-        <v>204.02098737517531</v>
+        <v>98.590089048118443</v>
       </c>
       <c r="O10">
-        <v>0.44901865720748901</v>
+        <v>1.3667012410678581E-7</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>960</v>
+        <v>434</v>
       </c>
       <c r="E11">
-        <v>130809</v>
+        <v>60379</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>130821</v>
+        <v>60384</v>
       </c>
       <c r="H11">
-        <v>0.98229166666666667</v>
+        <v>0.97926267281105994</v>
       </c>
       <c r="I11">
-        <v>55.470588235294123</v>
+        <v>47.222222222222221</v>
       </c>
       <c r="J11">
-        <v>136.27187499999999</v>
+        <v>139.13364055299539</v>
       </c>
       <c r="K11">
-        <v>5.3668753487589909</v>
+        <v>5.6407160837307897</v>
       </c>
       <c r="L11">
-        <v>1.770833333333333</v>
+        <v>2.0737327188940089</v>
       </c>
       <c r="M11">
-        <v>98.229166666666671</v>
+        <v>97.926267281105993</v>
       </c>
       <c r="N11">
-        <v>338.8803766136075</v>
+        <v>335.34803317943351</v>
       </c>
       <c r="O11">
-        <v>3.023620136082172E-2</v>
+        <v>3.1256477814167738E-3</v>
       </c>
       <c r="P11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>3926</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4079</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>64421</v>
+        <v>157</v>
       </c>
       <c r="F12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>64491</v>
+        <v>157</v>
       </c>
       <c r="H12">
-        <v>0.96249080657023778</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>25.66013071895425</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>15.81049276783525</v>
+        <v>14.27272727272727</v>
       </c>
       <c r="K12">
-        <v>5.7962196275449287</v>
+        <v>5.2929936305732488</v>
       </c>
       <c r="L12">
-        <v>3.75091934297622</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>96.249080657023782</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>7.2272625874325058</v>
+        <v>23.430799073537909</v>
       </c>
       <c r="O12">
-        <v>1.0834106660695399E-6</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
+        <v>9.0086758136749268E-3</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>5669</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>6022</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>93485</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>93745</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.94138160079707733</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>16.059490084985839</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>15.56708734639655</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5.9807669742386258</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.8618399202922618</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>94.138160079707745</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>198.82499999999999</v>
       </c>
       <c r="O13">
-        <v>6.7617335730574268E-8</v>
-      </c>
-      <c r="P13" t="s">
-        <v>34</v>
+        <v>0.1930344104766846</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>412</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>60878</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>60891</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.96713615023474175</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>29.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>142.93661971830991</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5.4402128393358629</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.286384976525822</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>96.713615023474176</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>353.32902664447039</v>
+        <v>198.82499999999999</v>
       </c>
       <c r="O14">
-        <v>2.038116380572319E-2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
+        <v>0.1930344104766846</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>59931</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>59935</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.98617511520737322</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>71.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>138.09907834101381</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.973921748560941</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.382488479262673</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>98.617511520737324</v>
+        <v>100</v>
       </c>
       <c r="N15">
-        <v>359.43628822161031</v>
+        <v>198.82499999999999</v>
       </c>
       <c r="O15">
-        <v>3.6101784557104111E-2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
+        <v>0.1930344104766846</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>3458</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3682</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>55408</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>55539</v>
+        <v>121</v>
       </c>
       <c r="H16">
-        <v>0.93916349809885935</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>15.4375</v>
+        <v>100</v>
       </c>
       <c r="J16">
-        <v>15.083921781640409</v>
+        <v>15.125</v>
       </c>
       <c r="K16">
-        <v>5.7569995858765912</v>
+        <v>6.3966942148760326</v>
       </c>
       <c r="L16">
-        <v>6.083650190114068</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>93.916349809885929</v>
+        <v>100</v>
       </c>
       <c r="N16">
-        <v>6.9065774874894146</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.685731803036106E-7</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
+        <v>0.27771434187889099</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>1098</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1123</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>106478</v>
+        <v>241</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>106506</v>
+        <v>242</v>
       </c>
       <c r="H17">
-        <v>0.97773820124666078</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="I17">
-        <v>43.92</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>94.84060552092609</v>
+        <v>12.736842105263159</v>
       </c>
       <c r="K17">
-        <v>5.4915685501286324</v>
+        <v>6.0495867768595044</v>
       </c>
       <c r="L17">
-        <v>2.2261798753339268</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="M17">
-        <v>97.773820124666074</v>
+        <v>94.736842105263165</v>
       </c>
       <c r="N17">
-        <v>225.73521390819931</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.1268651187419891E-2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>39</v>
+        <v>2.368346601724625E-2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1712,10 +1916,10 @@
         <v>100</v>
       </c>
       <c r="J18">
-        <v>14.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>5.2929936305732488</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1724,10 +1928,10 @@
         <v>100</v>
       </c>
       <c r="N18">
-        <v>23.430799073537909</v>
+        <v>198.82499999999999</v>
       </c>
       <c r="O18">
-        <v>9.0086758136749268E-3</v>
+        <v>0.1930344104766846</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>139</v>
@@ -1735,7 +1939,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1785,25 +1989,25 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1812,10 +2016,10 @@
         <v>100</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.695652173913039</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.8461538461538458</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1824,10 +2028,10 @@
         <v>100</v>
       </c>
       <c r="N20">
-        <v>198.82499999999999</v>
+        <v>2.3114214046822781</v>
       </c>
       <c r="O20">
-        <v>0.1930344104766846</v>
+        <v>1.103931688703597E-3</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>139</v>
@@ -1835,7 +2039,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1885,25 +2089,25 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1912,10 +2116,10 @@
         <v>100</v>
       </c>
       <c r="J22">
-        <v>15.125</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6.3966942148760326</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1924,10 +2128,10 @@
         <v>100</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>198.82499999999999</v>
       </c>
       <c r="O22">
-        <v>0.27771434187889099</v>
+        <v>0.1930344104766846</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>139</v>
@@ -1935,49 +2139,49 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>328</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>328</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>241</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>242</v>
-      </c>
-      <c r="H23">
-        <v>0.94736842105263153</v>
-      </c>
       <c r="I23">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>12.736842105263159</v>
+        <v>8.4102564102564106</v>
       </c>
       <c r="K23">
-        <v>6.0495867768595044</v>
+        <v>5.8963414634146343</v>
       </c>
       <c r="L23">
-        <v>5.2631578947368416</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>94.736842105263165</v>
+        <v>100</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.368346601724625E-2</v>
+        <v>5.455146892927587E-4</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>139</v>
@@ -1985,7 +2189,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2035,49 +2239,49 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>34601</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>34610</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.98072805139186292</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>50.888888888888893</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>74.111349036402572</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.9850621207743426</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.9271948608137039</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>98.0728051391863</v>
       </c>
       <c r="N25">
-        <v>198.82499999999999</v>
+        <v>191.98075028290151</v>
       </c>
       <c r="O25">
-        <v>0.1930344104766846</v>
+        <v>6.7384337307885289E-4</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>139</v>
@@ -2085,1749 +2289,1749 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>507</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>515</v>
       </c>
       <c r="E26">
-        <v>338</v>
+        <v>33317</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>338</v>
+        <v>33321</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.98446601941747569</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>63.375</v>
       </c>
       <c r="J26">
-        <v>14.695652173913039</v>
+        <v>64.700970873786403</v>
       </c>
       <c r="K26">
-        <v>5.8461538461538458</v>
+        <v>4.8428618588877894</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.5533980582524269</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>98.446601941747574</v>
       </c>
       <c r="N26">
-        <v>2.3114214046822781</v>
+        <v>173.1325587997656</v>
       </c>
       <c r="O26">
-        <v>1.103931688703597E-3</v>
+        <v>4.3996889144182214E-3</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2579</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2662</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>28814</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>28870</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.96882043576258448</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>31.07228915662651</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>10.845229151014269</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>5.4497748527883614</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>3.117956423741548</v>
       </c>
       <c r="M27">
-        <v>100</v>
+        <v>96.882043576258454</v>
       </c>
       <c r="N27">
-        <v>198.82499999999999</v>
+        <v>8.1863433733748252</v>
       </c>
       <c r="O27">
-        <v>0.1930344104766846</v>
+        <v>2.0446936105145141E-5</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1142</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>1166</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>81628</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>81643</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.97941680960548883</v>
       </c>
       <c r="I28">
-        <v>100</v>
+        <v>47.583333333333343</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>70.019725557461413</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>5.1171931457687734</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.0583190394511148</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>97.941680960548879</v>
       </c>
       <c r="N28">
-        <v>198.82499999999999</v>
+        <v>175.9932490737138</v>
       </c>
       <c r="O28">
-        <v>0.1930344104766846</v>
+        <v>0.1398571580648422</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>394</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="E29">
-        <v>328</v>
+        <v>31289</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>328</v>
+        <v>31300</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.97044334975369462</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>32.833333333333343</v>
       </c>
       <c r="J29">
-        <v>8.4102564102564106</v>
+        <v>77.093596059113295</v>
       </c>
       <c r="K29">
-        <v>5.8963414634146343</v>
+        <v>5.1713738019169329</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2.9556650246305418</v>
       </c>
       <c r="M29">
-        <v>100</v>
+        <v>97.044334975369452</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>192.2793432222729</v>
       </c>
       <c r="O29">
-        <v>5.455146892927587E-4</v>
+        <v>2.109269917127676E-5</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>670</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>42435</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>42445</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.98240469208211145</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>55.833333333333343</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>62.23607038123167</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4.5137000824596534</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.759530791788857</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>98.240469208211138</v>
       </c>
       <c r="N30">
-        <v>198.82499999999999</v>
+        <v>179.92324288219811</v>
       </c>
       <c r="O30">
-        <v>0.1930344104766846</v>
+        <v>3.7220670492388308E-4</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>455</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="E31">
-        <v>584</v>
+        <v>43670</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>585</v>
+        <v>43671</v>
       </c>
       <c r="H31">
-        <v>0.9838709677419355</v>
+        <v>0.99128540305010893</v>
       </c>
       <c r="I31">
-        <v>61</v>
+        <v>113.75</v>
       </c>
       <c r="J31">
-        <v>9.435483870967742</v>
+        <v>95.143790849673209</v>
       </c>
       <c r="K31">
-        <v>6.2495726495726496</v>
+        <v>5.1795699663392183</v>
       </c>
       <c r="L31">
-        <v>1.612903225806452</v>
+        <v>0.8714596949891068</v>
       </c>
       <c r="M31">
-        <v>98.387096774193552</v>
+        <v>99.128540305010887</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>239.061070719969</v>
       </c>
       <c r="O31">
-        <v>2.5054456273210232E-5</v>
-      </c>
-      <c r="P31" t="s">
-        <v>54</v>
+        <v>1.375641324557364E-3</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="E32">
-        <v>487</v>
+        <v>24238</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>487</v>
+        <v>24247</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>12.175000000000001</v>
+        <v>128.29100529100529</v>
       </c>
       <c r="K32">
-        <v>6.3285420944558526</v>
+        <v>4.8621685156926633</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>95.238095238095241</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>338.32690369157098</v>
       </c>
       <c r="O32">
-        <v>4.1062338277697558E-4</v>
-      </c>
-      <c r="P32" t="s">
-        <v>54</v>
+        <v>2.7304913382977252E-3</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>1429</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>1472</v>
       </c>
       <c r="E33">
-        <v>653</v>
+        <v>27999</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G33">
-        <v>654</v>
+        <v>28026</v>
       </c>
       <c r="H33">
-        <v>0.96153846153846156</v>
+        <v>0.97078804347826086</v>
       </c>
       <c r="I33">
-        <v>25</v>
+        <v>33.232558139534881</v>
       </c>
       <c r="J33">
-        <v>25.15384615384615</v>
+        <v>19.039402173913039</v>
       </c>
       <c r="K33">
-        <v>6.1804281345565748</v>
+        <v>5.803468208092486</v>
       </c>
       <c r="L33">
-        <v>3.8461538461538458</v>
+        <v>2.9211956521739131</v>
       </c>
       <c r="M33">
-        <v>96.15384615384616</v>
+        <v>97.078804347826093</v>
       </c>
       <c r="N33">
-        <v>16.177838155728072</v>
+        <v>15.36350441379744</v>
       </c>
       <c r="O33">
-        <v>1.79150390522409E-6</v>
-      </c>
-      <c r="P33" t="s">
-        <v>54</v>
+        <v>2.66094588141641E-7</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>533</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>49</v>
+        <v>552</v>
       </c>
       <c r="E34">
-        <v>636</v>
+        <v>39197</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>636</v>
+        <v>39207</v>
       </c>
       <c r="H34">
-        <v>0.89795918367346939</v>
+        <v>0.96557971014492749</v>
       </c>
       <c r="I34">
-        <v>8.8000000000000007</v>
+        <v>28.05263157894737</v>
       </c>
       <c r="J34">
-        <v>12.97959183673469</v>
+        <v>71.027173913043484</v>
       </c>
       <c r="K34">
-        <v>6.2845911949685531</v>
+        <v>4.8160532557961586</v>
       </c>
       <c r="L34">
-        <v>10.204081632653059</v>
+        <v>3.442028985507247</v>
       </c>
       <c r="M34">
-        <v>89.795918367346943</v>
+        <v>96.55797101449275</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>190.72098436143281</v>
       </c>
       <c r="O34">
-        <v>4.0385464671999222E-4</v>
-      </c>
-      <c r="P34" t="s">
-        <v>54</v>
+        <v>2.316263876855373E-2</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="E35">
-        <v>539</v>
+        <v>22036</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>539</v>
+        <v>22037</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.98113207547169812</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J35">
-        <v>16.84375</v>
+        <v>103.94811320754719</v>
       </c>
       <c r="K35">
-        <v>6.0482374768089064</v>
+        <v>5.2670508689930573</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.8867924528301889</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>98.113207547169807</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>258.52580680990212</v>
       </c>
       <c r="O35">
-        <v>9.1876508668065071E-4</v>
-      </c>
-      <c r="P35" t="s">
-        <v>54</v>
+        <v>3.1461339676752692E-4</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>61</v>
+        <v>588</v>
       </c>
       <c r="E36">
-        <v>645</v>
+        <v>35491</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>645</v>
+        <v>35496</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.98469387755102045</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>64.333333333333329</v>
       </c>
       <c r="J36">
-        <v>10.57377049180328</v>
+        <v>60.367346938775512</v>
       </c>
       <c r="K36">
-        <v>6.5875968992248062</v>
+        <v>5.0172695514987602</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.5306122448979591</v>
       </c>
       <c r="M36">
-        <v>100</v>
+        <v>98.469387755102048</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>154.81497127874141</v>
       </c>
       <c r="O36">
-        <v>8.7988764789770357E-6</v>
-      </c>
-      <c r="P36" t="s">
-        <v>54</v>
+        <v>7.1191973984241494E-3</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="E37">
-        <v>717</v>
+        <v>36494</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>717</v>
+        <v>36498</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.97862232779097391</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>45.777777777777779</v>
       </c>
       <c r="J37">
-        <v>14.34</v>
+        <v>86.693586698337299</v>
       </c>
       <c r="K37">
-        <v>6.2329149232914922</v>
+        <v>5.346512137651378</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2.1377672209026128</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>97.862232779097383</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>210.29913615251621</v>
       </c>
       <c r="O37">
-        <v>7.471899880329147E-5</v>
-      </c>
-      <c r="P37" t="s">
-        <v>54</v>
+        <v>2.4019833654165268E-3</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B38">
-        <v>1142</v>
+        <v>741</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>1166</v>
+        <v>766</v>
       </c>
       <c r="E38">
-        <v>81628</v>
+        <v>10281</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>81643</v>
+        <v>10294</v>
       </c>
       <c r="H38">
-        <v>0.97941680960548883</v>
+        <v>0.96736292428198434</v>
       </c>
       <c r="I38">
-        <v>47.583333333333343</v>
+        <v>29.64</v>
       </c>
       <c r="J38">
-        <v>70.019725557461413</v>
+        <v>13.43864229765013</v>
       </c>
       <c r="K38">
-        <v>5.1171931457687734</v>
+        <v>5.8895473091121042</v>
       </c>
       <c r="L38">
-        <v>2.0583190394511148</v>
+        <v>3.2637075718015671</v>
       </c>
       <c r="M38">
-        <v>97.941680960548879</v>
+        <v>96.736292428198439</v>
       </c>
       <c r="N38">
-        <v>175.9932490737138</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.1398571580648422</v>
+        <v>1.7870689816845699E-6</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B39">
-        <v>1429</v>
+        <v>535</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>1472</v>
+        <v>577</v>
       </c>
       <c r="E39">
-        <v>27999</v>
+        <v>12595</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>28026</v>
+        <v>12625</v>
       </c>
       <c r="H39">
-        <v>0.97078804347826086</v>
+        <v>0.92720970537261693</v>
       </c>
       <c r="I39">
-        <v>33.232558139534881</v>
+        <v>12.738095238095241</v>
       </c>
       <c r="J39">
-        <v>19.039402173913039</v>
+        <v>21.880415944540729</v>
       </c>
       <c r="K39">
-        <v>5.803468208092486</v>
+        <v>5.9912079207920792</v>
       </c>
       <c r="L39">
-        <v>2.9211956521739131</v>
+        <v>7.2790294627383014</v>
       </c>
       <c r="M39">
-        <v>97.078804347826093</v>
+        <v>92.720970537261692</v>
       </c>
       <c r="N39">
-        <v>15.36350441379744</v>
+        <v>15.236107397429519</v>
       </c>
       <c r="O39">
-        <v>2.66094588141641E-7</v>
+        <v>5.8272755509847229E-9</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B40">
-        <v>408</v>
+        <v>1361</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>418</v>
+        <v>1403</v>
       </c>
       <c r="E40">
-        <v>36650</v>
+        <v>14829</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G40">
-        <v>36656</v>
+        <v>14849</v>
       </c>
       <c r="H40">
-        <v>0.97607655502392343</v>
+        <v>0.97006414825374199</v>
       </c>
       <c r="I40">
-        <v>40.799999999999997</v>
+        <v>32.404761904761912</v>
       </c>
       <c r="J40">
-        <v>87.693779904306226</v>
+        <v>10.583749109052031</v>
       </c>
       <c r="K40">
-        <v>4.9128655608904408</v>
+        <v>5.9965654252811644</v>
       </c>
       <c r="L40">
-        <v>2.392344497607656</v>
+        <v>2.9935851746258022</v>
       </c>
       <c r="M40">
-        <v>97.607655502392348</v>
+        <v>97.006414825374193</v>
       </c>
       <c r="N40">
-        <v>230.33139164146581</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>6.1146300286054611E-3</v>
-      </c>
-      <c r="P40" t="s">
-        <v>64</v>
+        <v>2.256319646676275E-7</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>507</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>515</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>33317</v>
+        <v>584</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>33321</v>
+        <v>585</v>
       </c>
       <c r="H41">
-        <v>0.98446601941747569</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="I41">
-        <v>63.375</v>
+        <v>61</v>
       </c>
       <c r="J41">
-        <v>64.700970873786403</v>
+        <v>9.435483870967742</v>
       </c>
       <c r="K41">
-        <v>4.8428618588877894</v>
+        <v>6.2495726495726496</v>
       </c>
       <c r="L41">
-        <v>1.5533980582524269</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="M41">
-        <v>98.446601941747574</v>
+        <v>98.387096774193552</v>
       </c>
       <c r="N41">
-        <v>173.1325587997656</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>4.3996889144182214E-3</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>142</v>
+        <v>2.5054456273210232E-5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>31289</v>
+        <v>487</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>31300</v>
+        <v>487</v>
       </c>
       <c r="H42">
-        <v>0.97044334975369462</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>32.833333333333343</v>
+        <v>100</v>
       </c>
       <c r="J42">
-        <v>77.093596059113295</v>
+        <v>12.175000000000001</v>
       </c>
       <c r="K42">
-        <v>5.1713738019169329</v>
+        <v>6.3285420944558526</v>
       </c>
       <c r="L42">
-        <v>2.9556650246305418</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>97.044334975369452</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>192.2793432222729</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>2.109269917127676E-5</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>140</v>
+        <v>4.1062338277697558E-4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>670</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>682</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>42435</v>
+        <v>653</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>42445</v>
+        <v>654</v>
       </c>
       <c r="H43">
-        <v>0.98240469208211145</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="I43">
-        <v>55.833333333333343</v>
+        <v>25</v>
       </c>
       <c r="J43">
-        <v>62.23607038123167</v>
+        <v>25.15384615384615</v>
       </c>
       <c r="K43">
-        <v>4.5137000824596534</v>
+        <v>6.1804281345565748</v>
       </c>
       <c r="L43">
-        <v>1.759530791788857</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="M43">
-        <v>98.240469208211138</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="N43">
-        <v>179.92324288219811</v>
+        <v>16.177838155728072</v>
       </c>
       <c r="O43">
-        <v>3.7220670492388308E-4</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>140</v>
+        <v>1.79150390522409E-6</v>
+      </c>
+      <c r="P43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>552</v>
+        <v>49</v>
       </c>
       <c r="E44">
-        <v>39197</v>
+        <v>636</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>39207</v>
+        <v>636</v>
       </c>
       <c r="H44">
-        <v>0.96557971014492749</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="I44">
-        <v>28.05263157894737</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J44">
-        <v>71.027173913043484</v>
+        <v>12.97959183673469</v>
       </c>
       <c r="K44">
-        <v>4.8160532557961586</v>
+        <v>6.2845911949685531</v>
       </c>
       <c r="L44">
-        <v>3.442028985507247</v>
+        <v>10.204081632653059</v>
       </c>
       <c r="M44">
-        <v>96.55797101449275</v>
+        <v>89.795918367346943</v>
       </c>
       <c r="N44">
-        <v>190.72098436143281</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>2.316263876855373E-2</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>141</v>
+        <v>4.0385464671999222E-4</v>
+      </c>
+      <c r="P44" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>390</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>28151</v>
+        <v>539</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>28160</v>
+        <v>539</v>
       </c>
       <c r="H45">
-        <v>0.97744360902255634</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>43.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="J45">
-        <v>70.576441102756888</v>
+        <v>16.84375</v>
       </c>
       <c r="K45">
-        <v>5.150390625</v>
+        <v>6.0482374768089064</v>
       </c>
       <c r="L45">
-        <v>2.255639097744361</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>97.744360902255636</v>
+        <v>100</v>
       </c>
       <c r="N45">
-        <v>176.1125679188205</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>5.568968877196312E-2</v>
+        <v>9.1876508668065071E-4</v>
       </c>
       <c r="P45" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>455</v>
+        <v>61</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>459</v>
+        <v>61</v>
       </c>
       <c r="E46">
-        <v>43670</v>
+        <v>645</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>645</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="G46">
-        <v>43671</v>
-      </c>
-      <c r="H46">
-        <v>0.99128540305010893</v>
-      </c>
       <c r="I46">
-        <v>113.75</v>
+        <v>100</v>
       </c>
       <c r="J46">
-        <v>95.143790849673209</v>
+        <v>10.57377049180328</v>
       </c>
       <c r="K46">
-        <v>5.1795699663392183</v>
+        <v>6.5875968992248062</v>
       </c>
       <c r="L46">
-        <v>0.8714596949891068</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>99.128540305010887</v>
+        <v>100</v>
       </c>
       <c r="N46">
-        <v>239.061070719969</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1.375641324557364E-3</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>140</v>
+        <v>8.7988764789770357E-6</v>
+      </c>
+      <c r="P46" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>27904</v>
+        <v>717</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>27911</v>
+        <v>717</v>
       </c>
       <c r="H47">
-        <v>0.95789473684210524</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>22.75</v>
+        <v>100</v>
       </c>
       <c r="J47">
-        <v>97.933333333333337</v>
+        <v>14.34</v>
       </c>
       <c r="K47">
-        <v>5.1797857475547273</v>
+        <v>6.2329149232914922</v>
       </c>
       <c r="L47">
-        <v>4.2105263157894726</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>95.78947368421052</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>246.33310759198881</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>5.5390265770256519E-3</v>
+        <v>7.471899880329147E-5</v>
       </c>
       <c r="P47" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>180</v>
+        <v>5669</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>353</v>
       </c>
       <c r="D48">
-        <v>189</v>
+        <v>6022</v>
       </c>
       <c r="E48">
-        <v>24238</v>
+        <v>93485</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G48">
-        <v>24247</v>
+        <v>93745</v>
       </c>
       <c r="H48">
-        <v>0.95238095238095233</v>
+        <v>0.94138160079707733</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>16.059490084985839</v>
       </c>
       <c r="J48">
-        <v>128.29100529100529</v>
+        <v>15.56708734639655</v>
       </c>
       <c r="K48">
-        <v>4.8621685156926633</v>
+        <v>5.9807669742386258</v>
       </c>
       <c r="L48">
-        <v>4.7619047619047619</v>
+        <v>5.8618399202922618</v>
       </c>
       <c r="M48">
-        <v>95.238095238095241</v>
+        <v>94.138160079707745</v>
       </c>
       <c r="N48">
-        <v>338.32690369157098</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>2.7304913382977252E-3</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>140</v>
+        <v>6.7617335730574268E-8</v>
+      </c>
+      <c r="P48" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B49">
-        <v>2579</v>
+        <v>2753</v>
       </c>
       <c r="C49">
-        <v>83</v>
+        <v>604</v>
       </c>
       <c r="D49">
-        <v>2662</v>
+        <v>3357</v>
       </c>
       <c r="E49">
-        <v>28814</v>
+        <v>152304</v>
       </c>
       <c r="F49">
-        <v>56</v>
+        <v>394</v>
       </c>
       <c r="G49">
-        <v>28870</v>
+        <v>152698</v>
       </c>
       <c r="H49">
-        <v>0.96882043576258448</v>
+        <v>0.82007745010425981</v>
       </c>
       <c r="I49">
-        <v>31.07228915662651</v>
+        <v>4.5579470198675498</v>
       </c>
       <c r="J49">
-        <v>10.845229151014269</v>
+        <v>45.486446231754542</v>
       </c>
       <c r="K49">
-        <v>5.4497748527883614</v>
+        <v>6.0729151658829847</v>
       </c>
       <c r="L49">
-        <v>3.117956423741548</v>
+        <v>17.992254989574029</v>
       </c>
       <c r="M49">
-        <v>96.882043576258454</v>
+        <v>82.007745010425978</v>
       </c>
       <c r="N49">
-        <v>8.1863433733748252</v>
+        <v>73.565257875530449</v>
       </c>
       <c r="O49">
-        <v>2.0446936105145141E-5</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>144</v>
+        <v>4.0155696297006216E-6</v>
+      </c>
+      <c r="P49" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B50">
-        <v>208</v>
+        <v>2360</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="D50">
-        <v>212</v>
+        <v>2758</v>
       </c>
       <c r="E50">
-        <v>22036</v>
+        <v>73332</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="G50">
-        <v>22037</v>
+        <v>73595</v>
       </c>
       <c r="H50">
-        <v>0.98113207547169812</v>
+        <v>0.85569253081943442</v>
       </c>
       <c r="I50">
-        <v>52</v>
+        <v>5.9296482412060314</v>
       </c>
       <c r="J50">
-        <v>103.94811320754719</v>
+        <v>26.684191443074688</v>
       </c>
       <c r="K50">
-        <v>5.2670508689930573</v>
+        <v>6.2421496025545213</v>
       </c>
       <c r="L50">
-        <v>1.8867924528301889</v>
+        <v>14.43074691805656</v>
       </c>
       <c r="M50">
-        <v>98.113207547169807</v>
+        <v>85.56925308194343</v>
       </c>
       <c r="N50">
-        <v>258.52580680990212</v>
+        <v>17.692379383797061</v>
       </c>
       <c r="O50">
-        <v>3.1461339676752692E-4</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>143</v>
+        <v>3.7403331134555629E-6</v>
+      </c>
+      <c r="P50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="B51">
-        <v>579</v>
+        <v>5738</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="D51">
-        <v>588</v>
+        <v>6366</v>
       </c>
       <c r="E51">
-        <v>35491</v>
+        <v>162835</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="G51">
-        <v>35496</v>
+        <v>163224</v>
       </c>
       <c r="H51">
-        <v>0.98469387755102045</v>
+        <v>0.90135092679861761</v>
       </c>
       <c r="I51">
-        <v>64.333333333333329</v>
+        <v>9.1369426751592364</v>
       </c>
       <c r="J51">
-        <v>60.367346938775512</v>
+        <v>25.639962299717251</v>
       </c>
       <c r="K51">
-        <v>5.0172695514987602</v>
+        <v>5.7628228691859036</v>
       </c>
       <c r="L51">
-        <v>1.5306122448979591</v>
+        <v>9.8649073201382347</v>
       </c>
       <c r="M51">
-        <v>98.469387755102048</v>
+        <v>90.135092679861771</v>
       </c>
       <c r="N51">
-        <v>154.81497127874141</v>
+        <v>34.22389283271832</v>
       </c>
       <c r="O51">
-        <v>7.1191973984241494E-3</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>143</v>
+        <v>8.5268219152112579E-8</v>
+      </c>
+      <c r="P51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>498</v>
+        <v>4010</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>614</v>
       </c>
       <c r="D52">
-        <v>508</v>
+        <v>4624</v>
       </c>
       <c r="E52">
-        <v>45255</v>
+        <v>110913</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="G52">
-        <v>45263</v>
+        <v>111306</v>
       </c>
       <c r="H52">
-        <v>0.98031496062992129</v>
+        <v>0.86721453287197237</v>
       </c>
       <c r="I52">
-        <v>49.8</v>
+        <v>6.5309446254071659</v>
       </c>
       <c r="J52">
-        <v>89.100393700787407</v>
+        <v>24.071366782006919</v>
       </c>
       <c r="K52">
-        <v>4.6417603782338777</v>
+        <v>5.8070095053276551</v>
       </c>
       <c r="L52">
-        <v>1.9685039370078741</v>
+        <v>13.27854671280277</v>
       </c>
       <c r="M52">
-        <v>98.031496062992119</v>
+        <v>86.721453287197235</v>
       </c>
       <c r="N52">
-        <v>244.89430436350909</v>
+        <v>28.35466042449951</v>
       </c>
       <c r="O52">
-        <v>1.1949109612032769E-3</v>
+        <v>4.8367786575909122E-7</v>
       </c>
       <c r="P52" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>412</v>
+        <v>2207</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D53">
-        <v>421</v>
+        <v>2295</v>
       </c>
       <c r="E53">
-        <v>36494</v>
+        <v>20875</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G53">
-        <v>36498</v>
+        <v>20928</v>
       </c>
       <c r="H53">
-        <v>0.97862232779097391</v>
+        <v>0.96165577342047925</v>
       </c>
       <c r="I53">
-        <v>45.777777777777779</v>
+        <v>25.07954545454545</v>
       </c>
       <c r="J53">
-        <v>86.693586698337299</v>
+        <v>9.1189542483660126</v>
       </c>
       <c r="K53">
-        <v>5.346512137651378</v>
+        <v>5.7500955657492359</v>
       </c>
       <c r="L53">
-        <v>2.1377672209026128</v>
+        <v>3.8344226579520702</v>
       </c>
       <c r="M53">
-        <v>97.862232779097383</v>
+        <v>96.165577342047925</v>
       </c>
       <c r="N53">
-        <v>210.29913615251621</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>2.4019833654165268E-3</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>143</v>
+        <v>5.9970967413391918E-5</v>
+      </c>
+      <c r="P53" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>458</v>
+        <v>2529</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>467</v>
+        <v>2594</v>
       </c>
       <c r="E54">
-        <v>34601</v>
+        <v>103683</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G54">
-        <v>34610</v>
+        <v>103756</v>
       </c>
       <c r="H54">
-        <v>0.98072805139186292</v>
+        <v>0.97494217424826524</v>
       </c>
       <c r="I54">
-        <v>50.888888888888893</v>
+        <v>38.907692307692308</v>
       </c>
       <c r="J54">
-        <v>74.111349036402572</v>
+        <v>39.998457979953741</v>
       </c>
       <c r="K54">
-        <v>4.9850621207743426</v>
+        <v>2.4691969621033958</v>
       </c>
       <c r="L54">
-        <v>1.9271948608137039</v>
+        <v>2.5057825751734768</v>
       </c>
       <c r="M54">
-        <v>98.0728051391863</v>
+        <v>97.494217424826516</v>
       </c>
       <c r="N54">
-        <v>191.98075028290151</v>
+        <v>204.02098737517531</v>
       </c>
       <c r="O54">
-        <v>6.7384337307885289E-4</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>139</v>
+        <v>0.44901865720748901</v>
+      </c>
+      <c r="P54" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>637</v>
+        <v>412</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>690</v>
+        <v>426</v>
       </c>
       <c r="E55">
-        <v>15630</v>
+        <v>60878</v>
       </c>
       <c r="F55">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>15668</v>
+        <v>60891</v>
       </c>
       <c r="H55">
-        <v>0.92318840579710149</v>
+        <v>0.96713615023474175</v>
       </c>
       <c r="I55">
-        <v>12.018867924528299</v>
+        <v>29.428571428571431</v>
       </c>
       <c r="J55">
-        <v>22.70724637681159</v>
+        <v>142.93661971830991</v>
       </c>
       <c r="K55">
-        <v>6.4928516721981104</v>
+        <v>5.4402128393358629</v>
       </c>
       <c r="L55">
-        <v>7.6811594202898554</v>
+        <v>3.286384976525822</v>
       </c>
       <c r="M55">
-        <v>92.318840579710141</v>
+        <v>96.713615023474176</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>353.32902664447039</v>
       </c>
       <c r="O55">
-        <v>8.8143596588263762E-11</v>
+        <v>2.038116380572319E-2</v>
       </c>
       <c r="P55" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>5401</v>
+        <v>522</v>
       </c>
       <c r="C56">
-        <v>1255</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>6656</v>
+        <v>533</v>
       </c>
       <c r="E56">
-        <v>135027</v>
+        <v>70999</v>
       </c>
       <c r="F56">
-        <v>736</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>135763</v>
+        <v>71008</v>
       </c>
       <c r="H56">
-        <v>0.81144831730769229</v>
+        <v>0.9793621013133208</v>
       </c>
       <c r="I56">
-        <v>4.303585657370518</v>
+        <v>47.454545454545453</v>
       </c>
       <c r="J56">
-        <v>20.39708533653846</v>
+        <v>133.22326454033771</v>
       </c>
       <c r="K56">
-        <v>5.9230202632528748</v>
+        <v>5.6477861649391619</v>
       </c>
       <c r="L56">
-        <v>18.85516826923077</v>
+        <v>2.063789868667917</v>
       </c>
       <c r="M56">
-        <v>81.144831730769226</v>
+        <v>97.936210131332089</v>
       </c>
       <c r="N56">
-        <v>14.10405365218114</v>
+        <v>319.63791127385059</v>
       </c>
       <c r="O56">
-        <v>5.0464077503420413E-6</v>
+        <v>2.6045495644211769E-2</v>
       </c>
       <c r="P56" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>2985</v>
+        <v>3926</v>
       </c>
       <c r="C57">
-        <v>827</v>
+        <v>153</v>
       </c>
       <c r="D57">
-        <v>3812</v>
+        <v>4079</v>
       </c>
       <c r="E57">
-        <v>132262</v>
+        <v>64421</v>
       </c>
       <c r="F57">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="G57">
-        <v>132593</v>
+        <v>64491</v>
       </c>
       <c r="H57">
-        <v>0.78305351521511013</v>
+        <v>0.96249080657023778</v>
       </c>
       <c r="I57">
-        <v>3.609431680773882</v>
+        <v>25.66013071895425</v>
       </c>
       <c r="J57">
-        <v>34.783053515215109</v>
+        <v>15.81049276783525</v>
       </c>
       <c r="K57">
-        <v>6.4674454910892729</v>
+        <v>5.7962196275449287</v>
       </c>
       <c r="L57">
-        <v>21.694648478488979</v>
+        <v>3.75091934297622</v>
       </c>
       <c r="M57">
-        <v>78.305351521511014</v>
+        <v>96.249080657023782</v>
       </c>
       <c r="N57">
-        <v>29.77914707019988</v>
+        <v>7.2272625874325058</v>
       </c>
       <c r="O57">
-        <v>8.3948771134600975E-6</v>
+        <v>1.0834106660695399E-6</v>
       </c>
       <c r="P57" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>1985</v>
+        <v>428</v>
       </c>
       <c r="C58">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>2144</v>
+        <v>434</v>
       </c>
       <c r="E58">
-        <v>22521</v>
+        <v>59931</v>
       </c>
       <c r="F58">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>22591</v>
+        <v>59935</v>
       </c>
       <c r="H58">
-        <v>0.92583955223880599</v>
+        <v>0.98617511520737322</v>
       </c>
       <c r="I58">
-        <v>12.484276729559751</v>
+        <v>71.333333333333329</v>
       </c>
       <c r="J58">
-        <v>10.536847014925369</v>
+        <v>138.09907834101381</v>
       </c>
       <c r="K58">
-        <v>6.0494002036209107</v>
+        <v>4.973921748560941</v>
       </c>
       <c r="L58">
-        <v>7.4160447761194028</v>
+        <v>1.382488479262673</v>
       </c>
       <c r="M58">
-        <v>92.583955223880594</v>
+        <v>98.617511520737324</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>359.43628822161031</v>
       </c>
       <c r="O58">
-        <v>6.7807704340339114E-8</v>
+        <v>3.6101784557104111E-2</v>
       </c>
       <c r="P58" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>1187</v>
+        <v>6833</v>
       </c>
       <c r="C59">
-        <v>210</v>
+        <v>485</v>
       </c>
       <c r="D59">
-        <v>1397</v>
+        <v>7318</v>
       </c>
       <c r="E59">
-        <v>27309</v>
+        <v>97840</v>
       </c>
       <c r="F59">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="G59">
-        <v>27400</v>
+        <v>98083</v>
       </c>
       <c r="H59">
-        <v>0.84967788117394416</v>
+        <v>0.93372506149221102</v>
       </c>
       <c r="I59">
-        <v>5.6523809523809527</v>
+        <v>14.088659793814429</v>
       </c>
       <c r="J59">
-        <v>19.613457408733002</v>
+        <v>13.402978955998909</v>
       </c>
       <c r="K59">
-        <v>6.2682116788321167</v>
+        <v>5.9016649164483139</v>
       </c>
       <c r="L59">
-        <v>15.03221188260558</v>
+        <v>6.627493850778901</v>
       </c>
       <c r="M59">
-        <v>84.96778811739442</v>
+        <v>93.372506149221095</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>3.0672092634631549E-6</v>
+        <v>2.6436697453391389E-7</v>
       </c>
       <c r="P59" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>2891</v>
+        <v>943</v>
       </c>
       <c r="C60">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>3231</v>
+        <v>960</v>
       </c>
       <c r="E60">
-        <v>54390</v>
+        <v>130809</v>
       </c>
       <c r="F60">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>54652</v>
+        <v>130821</v>
       </c>
       <c r="H60">
-        <v>0.8947694212318168</v>
+        <v>0.98229166666666667</v>
       </c>
       <c r="I60">
-        <v>8.5029411764705891</v>
+        <v>55.470588235294123</v>
       </c>
       <c r="J60">
-        <v>16.914887031878671</v>
+        <v>136.27187499999999</v>
       </c>
       <c r="K60">
-        <v>6.1805972334040842</v>
+        <v>5.3668753487589909</v>
       </c>
       <c r="L60">
-        <v>10.523057876818321</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="M60">
-        <v>89.476942123181672</v>
+        <v>98.229166666666671</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>338.8803766136075</v>
       </c>
       <c r="O60">
-        <v>7.0839114130194503E-8</v>
+        <v>3.023620136082172E-2</v>
       </c>
       <c r="P60" t="s">
         <v>17</v>
@@ -3835,49 +4039,49 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B61">
-        <v>2112</v>
+        <v>5401</v>
       </c>
       <c r="C61">
-        <v>216</v>
+        <v>1255</v>
       </c>
       <c r="D61">
-        <v>2328</v>
+        <v>6656</v>
       </c>
       <c r="E61">
-        <v>28783</v>
+        <v>135027</v>
       </c>
       <c r="F61">
-        <v>109</v>
+        <v>736</v>
       </c>
       <c r="G61">
-        <v>28892</v>
+        <v>135763</v>
       </c>
       <c r="H61">
-        <v>0.90721649484536082</v>
+        <v>0.81144831730769229</v>
       </c>
       <c r="I61">
-        <v>9.7777777777777786</v>
+        <v>4.303585657370518</v>
       </c>
       <c r="J61">
-        <v>12.4106529209622</v>
+        <v>20.39708533653846</v>
       </c>
       <c r="K61">
-        <v>6.1653398864737641</v>
+        <v>5.9230202632528748</v>
       </c>
       <c r="L61">
-        <v>9.2783505154639183</v>
+        <v>18.85516826923077</v>
       </c>
       <c r="M61">
-        <v>90.721649484536087</v>
+        <v>81.144831730769226</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>14.10405365218114</v>
       </c>
       <c r="O61">
-        <v>6.2367797681872617E-7</v>
+        <v>5.0464077503420413E-6</v>
       </c>
       <c r="P61" t="s">
         <v>17</v>
@@ -3885,99 +4089,99 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62">
-        <v>7874</v>
+        <v>1985</v>
       </c>
       <c r="C62">
-        <v>1089</v>
+        <v>159</v>
       </c>
       <c r="D62">
-        <v>8963</v>
+        <v>2144</v>
       </c>
       <c r="E62">
-        <v>142755</v>
+        <v>22521</v>
       </c>
       <c r="F62">
-        <v>614</v>
+        <v>70</v>
       </c>
       <c r="G62">
-        <v>143369</v>
+        <v>22591</v>
       </c>
       <c r="H62">
-        <v>0.87850050206404107</v>
+        <v>0.92583955223880599</v>
       </c>
       <c r="I62">
-        <v>7.2304866850321394</v>
+        <v>12.484276729559751</v>
       </c>
       <c r="J62">
-        <v>15.99564877831083</v>
+        <v>10.536847014925369</v>
       </c>
       <c r="K62">
-        <v>6.3576017130620981</v>
+        <v>6.0494002036209107</v>
       </c>
       <c r="L62">
-        <v>12.149949793595891</v>
+        <v>7.4160447761194028</v>
       </c>
       <c r="M62">
-        <v>87.850050206404106</v>
+        <v>92.583955223880594</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>5.5692476053081919E-7</v>
+        <v>6.7807704340339114E-8</v>
       </c>
       <c r="P62" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63">
-        <v>7115</v>
+        <v>2891</v>
       </c>
       <c r="C63">
-        <v>1420</v>
+        <v>340</v>
       </c>
       <c r="D63">
-        <v>8535</v>
+        <v>3231</v>
       </c>
       <c r="E63">
-        <v>354935</v>
+        <v>54390</v>
       </c>
       <c r="F63">
-        <v>1083</v>
+        <v>262</v>
       </c>
       <c r="G63">
-        <v>356018</v>
+        <v>54652</v>
       </c>
       <c r="H63">
-        <v>0.83362624487404802</v>
+        <v>0.8947694212318168</v>
       </c>
       <c r="I63">
-        <v>5.01056338028169</v>
+        <v>8.5029411764705891</v>
       </c>
       <c r="J63">
-        <v>41.712712360867023</v>
+        <v>16.914887031878671</v>
       </c>
       <c r="K63">
-        <v>5.8701048823374098</v>
+        <v>6.1805972334040842</v>
       </c>
       <c r="L63">
-        <v>16.637375512595199</v>
+        <v>10.523057876818321</v>
       </c>
       <c r="M63">
-        <v>83.362624487404801</v>
+        <v>89.476942123181672</v>
       </c>
       <c r="N63">
-        <v>71.863715613957467</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>3.199598495484679E-6</v>
+        <v>7.0839114130194503E-8</v>
       </c>
       <c r="P63" t="s">
         <v>17</v>
@@ -3985,99 +4189,99 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B64">
-        <v>2753</v>
+        <v>2112</v>
       </c>
       <c r="C64">
-        <v>604</v>
+        <v>216</v>
       </c>
       <c r="D64">
-        <v>3357</v>
+        <v>2328</v>
       </c>
       <c r="E64">
-        <v>152304</v>
+        <v>28783</v>
       </c>
       <c r="F64">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="G64">
-        <v>152698</v>
+        <v>28892</v>
       </c>
       <c r="H64">
-        <v>0.82007745010425981</v>
+        <v>0.90721649484536082</v>
       </c>
       <c r="I64">
-        <v>4.5579470198675498</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="J64">
-        <v>45.486446231754542</v>
+        <v>12.4106529209622</v>
       </c>
       <c r="K64">
-        <v>6.0729151658829847</v>
+        <v>6.1653398864737641</v>
       </c>
       <c r="L64">
-        <v>17.992254989574029</v>
+        <v>9.2783505154639183</v>
       </c>
       <c r="M64">
-        <v>82.007745010425978</v>
+        <v>90.721649484536087</v>
       </c>
       <c r="N64">
-        <v>73.565257875530449</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>4.0155696297006216E-6</v>
+        <v>6.2367797681872617E-7</v>
       </c>
       <c r="P64" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65">
-        <v>5346</v>
+        <v>7115</v>
       </c>
       <c r="C65">
-        <v>438</v>
+        <v>1420</v>
       </c>
       <c r="D65">
-        <v>5784</v>
+        <v>8535</v>
       </c>
       <c r="E65">
-        <v>56838</v>
+        <v>354935</v>
       </c>
       <c r="F65">
-        <v>295</v>
+        <v>1083</v>
       </c>
       <c r="G65">
-        <v>57133</v>
+        <v>356018</v>
       </c>
       <c r="H65">
-        <v>0.92427385892116187</v>
+        <v>0.83362624487404802</v>
       </c>
       <c r="I65">
-        <v>12.20547945205479</v>
+        <v>5.01056338028169</v>
       </c>
       <c r="J65">
-        <v>9.8777662517289073</v>
+        <v>41.712712360867023</v>
       </c>
       <c r="K65">
-        <v>6.0025204347749987</v>
+        <v>5.8701048823374098</v>
       </c>
       <c r="L65">
-        <v>7.5726141078838172</v>
+        <v>16.637375512595199</v>
       </c>
       <c r="M65">
-        <v>92.427385892116178</v>
+        <v>83.362624487404801</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>71.863715613957467</v>
       </c>
       <c r="O65">
-        <v>4.2438082914486591E-7</v>
+        <v>3.199598495484679E-6</v>
       </c>
       <c r="P65" t="s">
         <v>17</v>
@@ -4085,249 +4289,249 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66">
-        <v>2864</v>
+        <v>5346</v>
       </c>
       <c r="C66">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="D66">
-        <v>3191</v>
+        <v>5784</v>
       </c>
       <c r="E66">
-        <v>59679</v>
+        <v>56838</v>
       </c>
       <c r="F66">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="G66">
-        <v>59858</v>
+        <v>57133</v>
       </c>
       <c r="H66">
-        <v>0.89752428705734877</v>
+        <v>0.92427385892116187</v>
       </c>
       <c r="I66">
-        <v>8.7584097859327219</v>
+        <v>12.20547945205479</v>
       </c>
       <c r="J66">
-        <v>18.758382952052649</v>
+        <v>9.8777662517289073</v>
       </c>
       <c r="K66">
-        <v>6.090998696916035</v>
+        <v>6.0025204347749987</v>
       </c>
       <c r="L66">
-        <v>10.24757129426512</v>
+        <v>7.5726141078838172</v>
       </c>
       <c r="M66">
-        <v>89.752428705734886</v>
+        <v>92.427385892116178</v>
       </c>
       <c r="N66">
-        <v>3.078506856255729</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1.6746620090657419E-8</v>
+        <v>4.2438082914486591E-7</v>
       </c>
       <c r="P66" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B67">
-        <v>7120</v>
+        <v>439</v>
       </c>
       <c r="C67">
-        <v>424</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>7544</v>
+        <v>465</v>
       </c>
       <c r="E67">
-        <v>140275</v>
+        <v>18708</v>
       </c>
       <c r="F67">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="G67">
-        <v>140591</v>
+        <v>18725</v>
       </c>
       <c r="H67">
-        <v>0.94379639448568398</v>
+        <v>0.94408602150537635</v>
       </c>
       <c r="I67">
-        <v>16.79245283018868</v>
+        <v>16.88461538461538</v>
       </c>
       <c r="J67">
-        <v>18.636134676564161</v>
+        <v>40.268817204301072</v>
       </c>
       <c r="K67">
-        <v>5.7928814788997869</v>
+        <v>3.9100133511348458</v>
       </c>
       <c r="L67">
-        <v>5.6203605514316006</v>
+        <v>5.591397849462366</v>
       </c>
       <c r="M67">
-        <v>94.379639448568398</v>
+        <v>94.408602150537632</v>
       </c>
       <c r="N67">
-        <v>14.73629809103352</v>
+        <v>146.84182652138341</v>
       </c>
       <c r="O67">
-        <v>1.7600583378225561E-3</v>
+        <v>2.6373295113444328E-3</v>
       </c>
       <c r="P67" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B68">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="C68">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="D68">
-        <v>1804</v>
+        <v>1664</v>
       </c>
       <c r="E68">
-        <v>32295</v>
+        <v>23649</v>
       </c>
       <c r="F68">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="G68">
-        <v>32522</v>
+        <v>23725</v>
       </c>
       <c r="H68">
-        <v>0.86141906873614194</v>
+        <v>0.92608173076923073</v>
       </c>
       <c r="I68">
-        <v>6.2160000000000002</v>
+        <v>12.52845528455285</v>
       </c>
       <c r="J68">
-        <v>18.027716186252771</v>
+        <v>14.2578125</v>
       </c>
       <c r="K68">
-        <v>6.3861386138613856</v>
+        <v>6.2198103266596414</v>
       </c>
       <c r="L68">
-        <v>13.85809312638581</v>
+        <v>7.3918269230769234</v>
       </c>
       <c r="M68">
-        <v>86.14190687361419</v>
+        <v>92.60817307692308</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>4.4182752390042879E-6</v>
+        <v>6.376739491997796E-8</v>
       </c>
       <c r="P68" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B69">
-        <v>719</v>
+        <v>1707</v>
       </c>
       <c r="C69">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D69">
-        <v>870</v>
+        <v>1828</v>
       </c>
       <c r="E69">
-        <v>28480</v>
+        <v>27994</v>
       </c>
       <c r="F69">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G69">
-        <v>28564</v>
+        <v>28068</v>
       </c>
       <c r="H69">
-        <v>0.82643678160919543</v>
+        <v>0.9338074398249453</v>
       </c>
       <c r="I69">
-        <v>4.7615894039735096</v>
+        <v>14.107438016528929</v>
       </c>
       <c r="J69">
-        <v>32.832183908045977</v>
+        <v>15.35448577680525</v>
       </c>
       <c r="K69">
-        <v>6.3494608598235542</v>
+        <v>5.9503705287159754</v>
       </c>
       <c r="L69">
-        <v>17.356321839080461</v>
+        <v>6.6192560175054709</v>
       </c>
       <c r="M69">
-        <v>82.643678160919535</v>
+        <v>93.380743982494522</v>
       </c>
       <c r="N69">
-        <v>29.42740995658869</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>9.8770515251089819E-6</v>
+        <v>2.583468585726223E-7</v>
       </c>
       <c r="P69" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>439</v>
+        <v>1576</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="D70">
-        <v>465</v>
+        <v>1740</v>
       </c>
       <c r="E70">
-        <v>18708</v>
+        <v>27372</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G70">
-        <v>18725</v>
+        <v>27470</v>
       </c>
       <c r="H70">
-        <v>0.94408602150537635</v>
+        <v>0.90574712643678157</v>
       </c>
       <c r="I70">
-        <v>16.88461538461538</v>
+        <v>9.6097560975609753</v>
       </c>
       <c r="J70">
-        <v>40.268817204301072</v>
+        <v>15.787356321839081</v>
       </c>
       <c r="K70">
-        <v>3.9100133511348458</v>
+        <v>5.9190389515835458</v>
       </c>
       <c r="L70">
-        <v>5.591397849462366</v>
+        <v>9.4252873563218387</v>
       </c>
       <c r="M70">
-        <v>94.408602150537632</v>
+        <v>90.574712643678168</v>
       </c>
       <c r="N70">
-        <v>146.84182652138341</v>
+        <v>2.232610120131028</v>
       </c>
       <c r="O70">
-        <v>2.6373295113444328E-3</v>
+        <v>1.033220513591004E-7</v>
       </c>
       <c r="P70" t="s">
         <v>17</v>
@@ -4335,249 +4539,249 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B71">
-        <v>1664</v>
+        <v>3099</v>
       </c>
       <c r="C71">
-        <v>385</v>
+        <v>208</v>
       </c>
       <c r="D71">
-        <v>2049</v>
+        <v>3307</v>
       </c>
       <c r="E71">
-        <v>37495</v>
+        <v>27804</v>
       </c>
       <c r="F71">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="G71">
-        <v>37684</v>
+        <v>27951</v>
       </c>
       <c r="H71">
-        <v>0.81210346510492926</v>
+        <v>0.93710311460538254</v>
       </c>
       <c r="I71">
-        <v>4.3220779220779217</v>
+        <v>14.89903846153846</v>
       </c>
       <c r="J71">
-        <v>18.391410444119082</v>
+        <v>8.452071363773813</v>
       </c>
       <c r="K71">
-        <v>6.1388122280012736</v>
+        <v>5.5812672176308542</v>
       </c>
       <c r="L71">
-        <v>18.789653489507081</v>
+        <v>6.2896885394617481</v>
       </c>
       <c r="M71">
-        <v>81.210346510492926</v>
+        <v>93.71031146053825</v>
       </c>
       <c r="N71">
-        <v>0.1997999991996551</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>2.3945369775901781E-7</v>
+        <v>1.775598661879485E-6</v>
       </c>
       <c r="P71" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B72">
-        <v>5331</v>
+        <v>2338</v>
       </c>
       <c r="C72">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="D72">
-        <v>5605</v>
+        <v>2441</v>
       </c>
       <c r="E72">
-        <v>62930</v>
+        <v>28254</v>
       </c>
       <c r="F72">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G72">
-        <v>63066</v>
+        <v>28309</v>
       </c>
       <c r="H72">
-        <v>0.95111507582515609</v>
+        <v>0.95780417861532163</v>
       </c>
       <c r="I72">
-        <v>19.456204379562049</v>
+        <v>22.699029126213588</v>
       </c>
       <c r="J72">
-        <v>11.25173951828724</v>
+        <v>11.597296190086031</v>
       </c>
       <c r="K72">
-        <v>6.0901912282370851</v>
+        <v>5.8135575258751633</v>
       </c>
       <c r="L72">
-        <v>4.8884924174843896</v>
+        <v>4.2195821384678407</v>
       </c>
       <c r="M72">
-        <v>95.111507582515614</v>
+        <v>95.780417861532158</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>3.6159875094199379E-7</v>
+        <v>5.7870167324836068E-8</v>
       </c>
       <c r="P72" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1731</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>442</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2173</v>
       </c>
       <c r="E73">
-        <v>4266</v>
+        <v>39133</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="G73">
-        <v>4310</v>
+        <v>39540</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.79659456971928211</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3.9162895927601808</v>
       </c>
       <c r="J73">
-        <v>4310</v>
+        <v>18.196042337781869</v>
       </c>
       <c r="K73">
-        <v>6.5102088167053367</v>
+        <v>5.9244309559939303</v>
       </c>
       <c r="L73">
-        <v>100</v>
+        <v>20.340543028071789</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>79.659456971928208</v>
       </c>
       <c r="N73">
-        <v>11186.37736078886</v>
+        <v>8.3026568445545479</v>
       </c>
       <c r="O73">
-        <v>3.3884643926285207E-5</v>
+        <v>1.390077086398378E-4</v>
       </c>
       <c r="P73" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2447</v>
       </c>
       <c r="E74">
-        <v>4266</v>
+        <v>59985</v>
       </c>
       <c r="F74">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="G74">
-        <v>4310</v>
+        <v>60125</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.92848385778504294</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>12.98285714285714</v>
       </c>
       <c r="J74">
-        <v>4310</v>
+        <v>24.570903146710261</v>
       </c>
       <c r="K74">
-        <v>6.5102088167053367</v>
+        <v>5.926120582120582</v>
       </c>
       <c r="L74">
-        <v>100</v>
+        <v>7.1516142214957084</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>92.848385778504294</v>
       </c>
       <c r="N74">
-        <v>11186.37736078886</v>
+        <v>24.87316282621941</v>
       </c>
       <c r="O74">
-        <v>3.3884643926285207E-5</v>
+        <v>1.106200642198019E-7</v>
       </c>
       <c r="P74" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B75">
-        <v>1541</v>
+        <v>1994</v>
       </c>
       <c r="C75">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="D75">
-        <v>1664</v>
+        <v>2199</v>
       </c>
       <c r="E75">
-        <v>23649</v>
+        <v>47419</v>
       </c>
       <c r="F75">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G75">
-        <v>23725</v>
+        <v>47539</v>
       </c>
       <c r="H75">
-        <v>0.92608173076923073</v>
+        <v>0.9067758071850841</v>
       </c>
       <c r="I75">
-        <v>12.52845528455285</v>
+        <v>9.7268292682926827</v>
       </c>
       <c r="J75">
-        <v>14.2578125</v>
+        <v>21.618462937698951</v>
       </c>
       <c r="K75">
-        <v>6.2198103266596414</v>
+        <v>6.0342666021582279</v>
       </c>
       <c r="L75">
-        <v>7.3918269230769234</v>
+        <v>9.3224192814915874</v>
       </c>
       <c r="M75">
-        <v>92.60817307692308</v>
+        <v>90.677580718508409</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>12.822527525687461</v>
       </c>
       <c r="O75">
-        <v>6.376739491997796E-8</v>
+        <v>1.205717410357465E-7</v>
       </c>
       <c r="P75" t="s">
         <v>17</v>
@@ -4585,49 +4789,49 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B76">
-        <v>1707</v>
+        <v>3007</v>
       </c>
       <c r="C76">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D76">
-        <v>1828</v>
+        <v>3183</v>
       </c>
       <c r="E76">
-        <v>27994</v>
+        <v>56080</v>
       </c>
       <c r="F76">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G76">
-        <v>28068</v>
+        <v>56169</v>
       </c>
       <c r="H76">
-        <v>0.9338074398249453</v>
+        <v>0.9447062519635564</v>
       </c>
       <c r="I76">
-        <v>14.107438016528929</v>
+        <v>17.08522727272727</v>
       </c>
       <c r="J76">
-        <v>15.35448577680525</v>
+        <v>17.646559849198869</v>
       </c>
       <c r="K76">
-        <v>5.9503705287159754</v>
+        <v>6.1465042995246488</v>
       </c>
       <c r="L76">
-        <v>6.6192560175054709</v>
+        <v>5.5293748036443606</v>
       </c>
       <c r="M76">
-        <v>93.380743982494522</v>
+        <v>94.470625196355641</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>2.583468585726223E-7</v>
+        <v>2.8561615295075171E-7</v>
       </c>
       <c r="P76" t="s">
         <v>17</v>
@@ -4635,49 +4839,49 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B77">
-        <v>1576</v>
+        <v>459</v>
       </c>
       <c r="C77">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="D77">
-        <v>1740</v>
+        <v>507</v>
       </c>
       <c r="E77">
-        <v>27372</v>
+        <v>9204</v>
       </c>
       <c r="F77">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="G77">
-        <v>27470</v>
+        <v>9224</v>
       </c>
       <c r="H77">
-        <v>0.90574712643678157</v>
+        <v>0.90532544378698221</v>
       </c>
       <c r="I77">
-        <v>9.6097560975609753</v>
+        <v>9.5625</v>
       </c>
       <c r="J77">
-        <v>15.787356321839081</v>
+        <v>18.19329388560158</v>
       </c>
       <c r="K77">
-        <v>5.9190389515835458</v>
+        <v>6.2611665221162189</v>
       </c>
       <c r="L77">
-        <v>9.4252873563218387</v>
+        <v>9.4674556213017755</v>
       </c>
       <c r="M77">
-        <v>90.574712643678168</v>
+        <v>90.532544378698219</v>
       </c>
       <c r="N77">
-        <v>2.232610120131028</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>1.033220513591004E-7</v>
+        <v>2.315605524927378E-5</v>
       </c>
       <c r="P77" t="s">
         <v>17</v>
@@ -4685,49 +4889,49 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B78">
-        <v>3099</v>
+        <v>1638</v>
       </c>
       <c r="C78">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="D78">
-        <v>3307</v>
+        <v>1811</v>
       </c>
       <c r="E78">
-        <v>27804</v>
+        <v>31392</v>
       </c>
       <c r="F78">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="G78">
-        <v>27951</v>
+        <v>31498</v>
       </c>
       <c r="H78">
-        <v>0.93710311460538254</v>
+        <v>0.90447266703478746</v>
       </c>
       <c r="I78">
-        <v>14.89903846153846</v>
+        <v>9.4682080924855487</v>
       </c>
       <c r="J78">
-        <v>8.452071363773813</v>
+        <v>17.392600773053559</v>
       </c>
       <c r="K78">
-        <v>5.5812672176308542</v>
+        <v>6.0153660549876182</v>
       </c>
       <c r="L78">
-        <v>6.2896885394617481</v>
+        <v>9.552733296521259</v>
       </c>
       <c r="M78">
-        <v>93.71031146053825</v>
+        <v>90.447266703478746</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>2.5523567585422602</v>
       </c>
       <c r="O78">
-        <v>1.775598661879485E-6</v>
+        <v>8.7793551983850193E-8</v>
       </c>
       <c r="P78" t="s">
         <v>17</v>
@@ -4735,49 +4939,49 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B79">
-        <v>2338</v>
+        <v>6550</v>
       </c>
       <c r="C79">
-        <v>103</v>
+        <v>550</v>
       </c>
       <c r="D79">
-        <v>2441</v>
+        <v>7100</v>
       </c>
       <c r="E79">
-        <v>28254</v>
+        <v>99468</v>
       </c>
       <c r="F79">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="G79">
-        <v>28309</v>
+        <v>99794</v>
       </c>
       <c r="H79">
-        <v>0.95780417861532163</v>
+        <v>0.92253521126760563</v>
       </c>
       <c r="I79">
-        <v>22.699029126213588</v>
+        <v>11.90909090909091</v>
       </c>
       <c r="J79">
-        <v>11.597296190086031</v>
+        <v>14.05549295774648</v>
       </c>
       <c r="K79">
-        <v>5.8135575258751633</v>
+        <v>5.6268012104936167</v>
       </c>
       <c r="L79">
-        <v>4.2195821384678407</v>
+        <v>7.7464788732394361</v>
       </c>
       <c r="M79">
-        <v>95.780417861532158</v>
+        <v>92.25352112676056</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>9.453097988137273</v>
       </c>
       <c r="O79">
-        <v>5.7870167324836068E-8</v>
+        <v>9.9177600532129873E-7</v>
       </c>
       <c r="P79" t="s">
         <v>17</v>
@@ -4785,349 +4989,349 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>1731</v>
+        <v>589</v>
       </c>
       <c r="C80">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>2173</v>
+        <v>600</v>
       </c>
       <c r="E80">
-        <v>39133</v>
+        <v>100720</v>
       </c>
       <c r="F80">
-        <v>407</v>
+        <v>8</v>
       </c>
       <c r="G80">
-        <v>39540</v>
+        <v>100728</v>
       </c>
       <c r="H80">
-        <v>0.79659456971928211</v>
+        <v>0.98166666666666669</v>
       </c>
       <c r="I80">
-        <v>3.9162895927601808</v>
+        <v>53.545454545454547</v>
       </c>
       <c r="J80">
-        <v>18.196042337781869</v>
+        <v>167.88</v>
       </c>
       <c r="K80">
-        <v>5.9244309559939303</v>
+        <v>5.4387657850845841</v>
       </c>
       <c r="L80">
-        <v>20.340543028071789</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="M80">
-        <v>79.659456971928208</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="N80">
-        <v>8.3026568445545479</v>
+        <v>418.4893845842268</v>
       </c>
       <c r="O80">
-        <v>1.390077086398378E-4</v>
+        <v>1.2294560670852659E-2</v>
       </c>
       <c r="P80" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>1638</v>
+        <v>1734</v>
       </c>
       <c r="C81">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="D81">
-        <v>1836</v>
+        <v>1775</v>
       </c>
       <c r="E81">
-        <v>24069</v>
+        <v>114627</v>
       </c>
       <c r="F81">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G81">
-        <v>24161</v>
+        <v>114657</v>
       </c>
       <c r="H81">
-        <v>0.89215686274509809</v>
+        <v>0.97690140845070428</v>
       </c>
       <c r="I81">
-        <v>8.2727272727272734</v>
+        <v>42.292682926829258</v>
       </c>
       <c r="J81">
-        <v>13.15958605664488</v>
+        <v>64.595492957746472</v>
       </c>
       <c r="K81">
-        <v>6.2692355448863868</v>
+        <v>4.998953400141291</v>
       </c>
       <c r="L81">
-        <v>10.7843137254902</v>
+        <v>2.3098591549295771</v>
       </c>
       <c r="M81">
-        <v>89.215686274509807</v>
+        <v>97.690140845070417</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>166.5862837690419</v>
       </c>
       <c r="O81">
-        <v>9.8149444127670904E-9</v>
+        <v>3.57680544257164E-2</v>
       </c>
       <c r="P81" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B82">
-        <v>6541</v>
+        <v>3458</v>
       </c>
       <c r="C82">
-        <v>826</v>
+        <v>224</v>
       </c>
       <c r="D82">
-        <v>7367</v>
+        <v>3682</v>
       </c>
       <c r="E82">
-        <v>82280</v>
+        <v>55408</v>
       </c>
       <c r="F82">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="G82">
-        <v>82746</v>
+        <v>55539</v>
       </c>
       <c r="H82">
-        <v>0.88787837654404778</v>
+        <v>0.93916349809885935</v>
       </c>
       <c r="I82">
-        <v>7.9188861985472156</v>
+        <v>15.4375</v>
       </c>
       <c r="J82">
-        <v>11.231980453373151</v>
+        <v>15.083921781640409</v>
       </c>
       <c r="K82">
-        <v>6.0839678050902766</v>
+        <v>5.7569995858765912</v>
       </c>
       <c r="L82">
-        <v>11.212162345595219</v>
+        <v>6.083650190114068</v>
       </c>
       <c r="M82">
-        <v>88.787837654404782</v>
+        <v>93.916349809885929</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>6.9065774874894146</v>
       </c>
       <c r="O82">
-        <v>6.6128689013567055E-7</v>
+        <v>1.685731803036106E-7</v>
       </c>
       <c r="P82" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="B83">
-        <v>2272</v>
+        <v>1098</v>
       </c>
       <c r="C83">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="D83">
-        <v>2447</v>
+        <v>1123</v>
       </c>
       <c r="E83">
-        <v>59985</v>
+        <v>106478</v>
       </c>
       <c r="F83">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="G83">
-        <v>60125</v>
+        <v>106506</v>
       </c>
       <c r="H83">
-        <v>0.92848385778504294</v>
+        <v>0.97773820124666078</v>
       </c>
       <c r="I83">
-        <v>12.98285714285714</v>
+        <v>43.92</v>
       </c>
       <c r="J83">
-        <v>24.570903146710261</v>
+        <v>94.84060552092609</v>
       </c>
       <c r="K83">
-        <v>5.926120582120582</v>
+        <v>5.4915685501286324</v>
       </c>
       <c r="L83">
-        <v>7.1516142214957084</v>
+        <v>2.2261798753339268</v>
       </c>
       <c r="M83">
-        <v>92.848385778504294</v>
+        <v>97.773820124666074</v>
       </c>
       <c r="N83">
-        <v>24.87316282621941</v>
+        <v>225.73521390819931</v>
       </c>
       <c r="O83">
-        <v>1.106200642198019E-7</v>
+        <v>9.1268651187419891E-2</v>
       </c>
       <c r="P83" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>1994</v>
+        <v>637</v>
       </c>
       <c r="C84">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="D84">
-        <v>2199</v>
+        <v>690</v>
       </c>
       <c r="E84">
-        <v>47419</v>
+        <v>15630</v>
       </c>
       <c r="F84">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="G84">
-        <v>47539</v>
+        <v>15668</v>
       </c>
       <c r="H84">
-        <v>0.9067758071850841</v>
+        <v>0.92318840579710149</v>
       </c>
       <c r="I84">
-        <v>9.7268292682926827</v>
+        <v>12.018867924528299</v>
       </c>
       <c r="J84">
-        <v>21.618462937698951</v>
+        <v>22.70724637681159</v>
       </c>
       <c r="K84">
-        <v>6.0342666021582279</v>
+        <v>6.4928516721981104</v>
       </c>
       <c r="L84">
-        <v>9.3224192814915874</v>
+        <v>7.6811594202898554</v>
       </c>
       <c r="M84">
-        <v>90.677580718508409</v>
+        <v>92.318840579710141</v>
       </c>
       <c r="N84">
-        <v>12.822527525687461</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>1.205717410357465E-7</v>
+        <v>8.8143596588263762E-11</v>
       </c>
       <c r="P84" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>3007</v>
+        <v>2985</v>
       </c>
       <c r="C85">
-        <v>176</v>
+        <v>827</v>
       </c>
       <c r="D85">
-        <v>3183</v>
+        <v>3812</v>
       </c>
       <c r="E85">
-        <v>56080</v>
+        <v>132262</v>
       </c>
       <c r="F85">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="G85">
-        <v>56169</v>
+        <v>132593</v>
       </c>
       <c r="H85">
-        <v>0.9447062519635564</v>
+        <v>0.78305351521511013</v>
       </c>
       <c r="I85">
-        <v>17.08522727272727</v>
+        <v>3.609431680773882</v>
       </c>
       <c r="J85">
-        <v>17.646559849198869</v>
+        <v>34.783053515215109</v>
       </c>
       <c r="K85">
-        <v>6.1465042995246488</v>
+        <v>6.4674454910892729</v>
       </c>
       <c r="L85">
-        <v>5.5293748036443606</v>
+        <v>21.694648478488979</v>
       </c>
       <c r="M85">
-        <v>94.470625196355641</v>
+        <v>78.305351521511014</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>29.77914707019988</v>
       </c>
       <c r="O85">
-        <v>2.8561615295075171E-7</v>
+        <v>8.3948771134600975E-6</v>
       </c>
       <c r="P85" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>1292</v>
+        <v>1187</v>
       </c>
       <c r="C86">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="D86">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="E86">
-        <v>31277</v>
+        <v>27309</v>
       </c>
       <c r="F86">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G86">
-        <v>31303</v>
+        <v>27400</v>
       </c>
       <c r="H86">
-        <v>0.90603085553997198</v>
+        <v>0.84967788117394416</v>
       </c>
       <c r="I86">
-        <v>9.6417910447761201</v>
+        <v>5.6523809523809527</v>
       </c>
       <c r="J86">
-        <v>21.951612903225811</v>
+        <v>19.613457408733002</v>
       </c>
       <c r="K86">
-        <v>6.6157556783694851</v>
+        <v>6.2682116788321167</v>
       </c>
       <c r="L86">
-        <v>9.3969144460028051</v>
+        <v>15.03221188260558</v>
       </c>
       <c r="M86">
-        <v>90.60308555399719</v>
+        <v>84.96778811739442</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>2.1596490569208981E-6</v>
+        <v>3.0672092634631549E-6</v>
       </c>
       <c r="P86" t="s">
         <v>81</v>
@@ -5135,49 +5339,49 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>266</v>
+        <v>7874</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>1089</v>
       </c>
       <c r="D87">
-        <v>306</v>
+        <v>8963</v>
       </c>
       <c r="E87">
-        <v>9574</v>
+        <v>142755</v>
       </c>
       <c r="F87">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="G87">
-        <v>9648</v>
+        <v>143369</v>
       </c>
       <c r="H87">
-        <v>0.86928104575163401</v>
+        <v>0.87850050206404107</v>
       </c>
       <c r="I87">
-        <v>6.65</v>
+        <v>7.2304866850321394</v>
       </c>
       <c r="J87">
-        <v>31.52941176470588</v>
+        <v>15.99564877831083</v>
       </c>
       <c r="K87">
-        <v>6.2204601990049753</v>
+        <v>6.3576017130620981</v>
       </c>
       <c r="L87">
-        <v>13.071895424836599</v>
+        <v>12.149949793595891</v>
       </c>
       <c r="M87">
-        <v>86.928104575163403</v>
+        <v>87.850050206404106</v>
       </c>
       <c r="N87">
-        <v>31.209776210857459</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>1.0870345734659279E-9</v>
+        <v>5.5692476053081919E-7</v>
       </c>
       <c r="P87" t="s">
         <v>81</v>
@@ -5185,49 +5389,49 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>46</v>
+        <v>2864</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="D88">
-        <v>55</v>
+        <v>3191</v>
       </c>
       <c r="E88">
-        <v>4237</v>
+        <v>59679</v>
       </c>
       <c r="F88">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="G88">
-        <v>4275</v>
+        <v>59858</v>
       </c>
       <c r="H88">
-        <v>0.83636363636363631</v>
+        <v>0.89752428705734877</v>
       </c>
       <c r="I88">
-        <v>5.1111111111111107</v>
+        <v>8.7584097859327219</v>
       </c>
       <c r="J88">
-        <v>77.727272727272734</v>
+        <v>18.758382952052649</v>
       </c>
       <c r="K88">
-        <v>6.192982456140351</v>
+        <v>6.090998696916035</v>
       </c>
       <c r="L88">
-        <v>16.36363636363636</v>
+        <v>10.24757129426512</v>
       </c>
       <c r="M88">
-        <v>83.63636363636364</v>
+        <v>89.752428705734886</v>
       </c>
       <c r="N88">
-        <v>152.89011164274319</v>
+        <v>3.078506856255729</v>
       </c>
       <c r="O88">
-        <v>7.7025558153920315E-10</v>
+        <v>1.6746620090657419E-8</v>
       </c>
       <c r="P88" t="s">
         <v>81</v>
@@ -5235,49 +5439,49 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>1621</v>
+        <v>7120</v>
       </c>
       <c r="C89">
-        <v>67</v>
+        <v>424</v>
       </c>
       <c r="D89">
-        <v>1688</v>
+        <v>7544</v>
       </c>
       <c r="E89">
-        <v>24969</v>
+        <v>140275</v>
       </c>
       <c r="F89">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="G89">
-        <v>25014</v>
+        <v>140591</v>
       </c>
       <c r="H89">
-        <v>0.96030805687203791</v>
+        <v>0.94379639448568398</v>
       </c>
       <c r="I89">
-        <v>24.194029850746269</v>
+        <v>16.79245283018868</v>
       </c>
       <c r="J89">
-        <v>14.818720379146921</v>
+        <v>18.636134676564161</v>
       </c>
       <c r="K89">
-        <v>5.9645798352922368</v>
+        <v>5.7928814788997869</v>
       </c>
       <c r="L89">
-        <v>3.9691943127962079</v>
+        <v>5.6203605514316006</v>
       </c>
       <c r="M89">
-        <v>96.030805687203795</v>
+        <v>94.379639448568398</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>14.73629809103352</v>
       </c>
       <c r="O89">
-        <v>8.1885173131013289E-6</v>
+        <v>1.7600583378225561E-3</v>
       </c>
       <c r="P89" t="s">
         <v>81</v>
@@ -5285,49 +5489,49 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>5005</v>
+        <v>1554</v>
       </c>
       <c r="C90">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="D90">
-        <v>5399</v>
+        <v>1804</v>
       </c>
       <c r="E90">
-        <v>79892</v>
+        <v>32295</v>
       </c>
       <c r="F90">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G90">
-        <v>80108</v>
+        <v>32522</v>
       </c>
       <c r="H90">
-        <v>0.92702352287460643</v>
+        <v>0.86141906873614194</v>
       </c>
       <c r="I90">
-        <v>12.703045685279189</v>
+        <v>6.2160000000000002</v>
       </c>
       <c r="J90">
-        <v>14.83756251157622</v>
+        <v>18.027716186252771</v>
       </c>
       <c r="K90">
-        <v>5.953038398162481</v>
+        <v>6.3861386138613856</v>
       </c>
       <c r="L90">
-        <v>7.2976477125393604</v>
+        <v>13.85809312638581</v>
       </c>
       <c r="M90">
-        <v>92.702352287460641</v>
+        <v>86.14190687361419</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>5.6142884119481102E-8</v>
+        <v>4.4182752390042879E-6</v>
       </c>
       <c r="P90" t="s">
         <v>81</v>
@@ -5335,49 +5539,49 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>1579</v>
+        <v>719</v>
       </c>
       <c r="C91">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D91">
-        <v>1678</v>
+        <v>870</v>
       </c>
       <c r="E91">
-        <v>23675</v>
+        <v>28480</v>
       </c>
       <c r="F91">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G91">
-        <v>23723</v>
+        <v>28564</v>
       </c>
       <c r="H91">
-        <v>0.94100119189511322</v>
+        <v>0.82643678160919543</v>
       </c>
       <c r="I91">
-        <v>15.94949494949495</v>
+        <v>4.7615894039735096</v>
       </c>
       <c r="J91">
-        <v>14.137663885578069</v>
+        <v>32.832183908045977</v>
       </c>
       <c r="K91">
-        <v>5.9892087847236857</v>
+        <v>6.3494608598235542</v>
       </c>
       <c r="L91">
-        <v>5.8998808104886784</v>
+        <v>17.356321839080461</v>
       </c>
       <c r="M91">
-        <v>94.100119189511318</v>
+        <v>82.643678160919535</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>29.42740995658869</v>
       </c>
       <c r="O91">
-        <v>1.516591652261923E-8</v>
+        <v>9.8770515251089819E-6</v>
       </c>
       <c r="P91" t="s">
         <v>81</v>
@@ -5385,49 +5589,49 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>1901</v>
+        <v>1664</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="D92">
-        <v>1976</v>
+        <v>2049</v>
       </c>
       <c r="E92">
-        <v>31831</v>
+        <v>37495</v>
       </c>
       <c r="F92">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="G92">
-        <v>31867</v>
+        <v>37684</v>
       </c>
       <c r="H92">
-        <v>0.96204453441295545</v>
+        <v>0.81210346510492926</v>
       </c>
       <c r="I92">
-        <v>25.346666666666671</v>
+        <v>4.3220779220779217</v>
       </c>
       <c r="J92">
-        <v>16.127024291497971</v>
+        <v>18.391410444119082</v>
       </c>
       <c r="K92">
-        <v>6.229736090626667</v>
+        <v>6.1388122280012736</v>
       </c>
       <c r="L92">
-        <v>3.7955465587044528</v>
+        <v>18.789653489507081</v>
       </c>
       <c r="M92">
-        <v>96.204453441295541</v>
+        <v>81.210346510492926</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>0.1997999991996551</v>
       </c>
       <c r="O92">
-        <v>2.718068614626645E-8</v>
+        <v>2.3945369775901781E-7</v>
       </c>
       <c r="P92" t="s">
         <v>81</v>
@@ -5435,49 +5639,49 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>3313</v>
+        <v>5331</v>
       </c>
       <c r="C93">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D93">
-        <v>3551</v>
+        <v>5605</v>
       </c>
       <c r="E93">
-        <v>52120</v>
+        <v>62930</v>
       </c>
       <c r="F93">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G93">
-        <v>52241</v>
+        <v>63066</v>
       </c>
       <c r="H93">
-        <v>0.93297662630245004</v>
+        <v>0.95111507582515609</v>
       </c>
       <c r="I93">
-        <v>13.920168067226889</v>
+        <v>19.456204379562049</v>
       </c>
       <c r="J93">
-        <v>14.71163052661222</v>
+        <v>11.25173951828724</v>
       </c>
       <c r="K93">
-        <v>6.0537317432667832</v>
+        <v>6.0901912282370851</v>
       </c>
       <c r="L93">
-        <v>6.7023373697549991</v>
+        <v>4.8884924174843896</v>
       </c>
       <c r="M93">
-        <v>93.297662630245</v>
+        <v>95.111507582515614</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>8.3866621025663335E-7</v>
+        <v>3.6159875094199379E-7</v>
       </c>
       <c r="P93" t="s">
         <v>81</v>
@@ -5485,49 +5689,49 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>4653</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>5011</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>77730</v>
+        <v>4266</v>
       </c>
       <c r="F94">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="G94">
-        <v>77992</v>
+        <v>4310</v>
       </c>
       <c r="H94">
-        <v>0.92855717421672324</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>12.997206703910621</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>15.564158850528839</v>
+        <v>4310</v>
       </c>
       <c r="K94">
-        <v>6.0057954662016613</v>
+        <v>6.5102088167053367</v>
       </c>
       <c r="L94">
-        <v>7.1442825783276804</v>
+        <v>100</v>
       </c>
       <c r="M94">
-        <v>92.855717421672324</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>11186.37736078886</v>
       </c>
       <c r="O94">
-        <v>3.3523442652949602E-6</v>
+        <v>3.3884643926285207E-5</v>
       </c>
       <c r="P94" t="s">
         <v>81</v>
@@ -5535,49 +5739,49 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>4262</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>473</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>4735</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>77642</v>
+        <v>4266</v>
       </c>
       <c r="F95">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>77953</v>
+        <v>4310</v>
       </c>
       <c r="H95">
-        <v>0.90010559662090817</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>9.0105708245243132</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>16.463146779303059</v>
+        <v>4310</v>
       </c>
       <c r="K95">
-        <v>6.0477467191769403</v>
+        <v>6.5102088167053367</v>
       </c>
       <c r="L95">
-        <v>9.989440337909187</v>
+        <v>100</v>
       </c>
       <c r="M95">
-        <v>90.010559662090813</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>11186.37736078886</v>
       </c>
       <c r="O95">
-        <v>2.2762367279938189E-6</v>
+        <v>3.3884643926285207E-5</v>
       </c>
       <c r="P95" t="s">
         <v>81</v>
@@ -5585,49 +5789,49 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B96">
-        <v>4387</v>
+        <v>1638</v>
       </c>
       <c r="C96">
-        <v>441</v>
+        <v>198</v>
       </c>
       <c r="D96">
-        <v>4828</v>
+        <v>1836</v>
       </c>
       <c r="E96">
-        <v>82901</v>
+        <v>24069</v>
       </c>
       <c r="F96">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G96">
-        <v>83085</v>
+        <v>24161</v>
       </c>
       <c r="H96">
-        <v>0.9086578293289147</v>
+        <v>0.89215686274509809</v>
       </c>
       <c r="I96">
-        <v>9.9478458049886616</v>
+        <v>8.2727272727272734</v>
       </c>
       <c r="J96">
-        <v>17.20898922949462</v>
+        <v>13.15958605664488</v>
       </c>
       <c r="K96">
-        <v>6.1167840163687792</v>
+        <v>6.2692355448863868</v>
       </c>
       <c r="L96">
-        <v>9.1342170671085334</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="M96">
-        <v>90.865782932891463</v>
+        <v>89.215686274509807</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>8.1893313108594157E-7</v>
+        <v>9.8149444127670904E-9</v>
       </c>
       <c r="P96" t="s">
         <v>81</v>
@@ -5635,49 +5839,49 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B97">
-        <v>2480</v>
+        <v>6541</v>
       </c>
       <c r="C97">
-        <v>134</v>
+        <v>826</v>
       </c>
       <c r="D97">
-        <v>2614</v>
+        <v>7367</v>
       </c>
       <c r="E97">
-        <v>33375</v>
+        <v>82280</v>
       </c>
       <c r="F97">
-        <v>98</v>
+        <v>466</v>
       </c>
       <c r="G97">
-        <v>33473</v>
+        <v>82746</v>
       </c>
       <c r="H97">
-        <v>0.94873756694720734</v>
+        <v>0.88787837654404778</v>
       </c>
       <c r="I97">
-        <v>18.507462686567159</v>
+        <v>7.9188861985472156</v>
       </c>
       <c r="J97">
-        <v>12.8052792654935</v>
+        <v>11.231980453373151</v>
       </c>
       <c r="K97">
-        <v>5.7691572312012669</v>
+        <v>6.0839678050902766</v>
       </c>
       <c r="L97">
-        <v>5.1262433052792664</v>
+        <v>11.212162345595219</v>
       </c>
       <c r="M97">
-        <v>94.87375669472074</v>
+        <v>88.787837654404782</v>
       </c>
       <c r="N97">
-        <v>0.47088711942711831</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>2.8610602953449421E-7</v>
+        <v>6.6128689013567055E-7</v>
       </c>
       <c r="P97" t="s">
         <v>81</v>
@@ -5685,49 +5889,49 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B98">
-        <v>9812</v>
+        <v>1292</v>
       </c>
       <c r="C98">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="D98">
-        <v>10322</v>
+        <v>1426</v>
       </c>
       <c r="E98">
-        <v>85071</v>
+        <v>31277</v>
       </c>
       <c r="F98">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="G98">
-        <v>85375</v>
+        <v>31303</v>
       </c>
       <c r="H98">
-        <v>0.95059097074210419</v>
+        <v>0.90603085553997198</v>
       </c>
       <c r="I98">
-        <v>19.239215686274509</v>
+        <v>9.6417910447761201</v>
       </c>
       <c r="J98">
-        <v>8.2711683782212742</v>
+        <v>21.951612903225811</v>
       </c>
       <c r="K98">
-        <v>5.7430278184480237</v>
+        <v>6.6157556783694851</v>
       </c>
       <c r="L98">
-        <v>4.9409029257895751</v>
+        <v>9.3969144460028051</v>
       </c>
       <c r="M98">
-        <v>95.059097074210428</v>
+        <v>90.60308555399719</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>2.470292201905977E-5</v>
+        <v>2.1596490569208981E-6</v>
       </c>
       <c r="P98" t="s">
         <v>81</v>
@@ -5735,99 +5939,99 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B99">
-        <v>2342</v>
+        <v>266</v>
       </c>
       <c r="C99">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D99">
-        <v>2435</v>
+        <v>306</v>
       </c>
       <c r="E99">
-        <v>31783</v>
+        <v>9574</v>
       </c>
       <c r="F99">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G99">
-        <v>31831</v>
+        <v>9648</v>
       </c>
       <c r="H99">
-        <v>0.96180698151950716</v>
+        <v>0.86928104575163401</v>
       </c>
       <c r="I99">
-        <v>25.182795698924728</v>
+        <v>6.65</v>
       </c>
       <c r="J99">
-        <v>13.07227926078029</v>
+        <v>31.52941176470588</v>
       </c>
       <c r="K99">
-        <v>6.0160221168043728</v>
+        <v>6.2204601990049753</v>
       </c>
       <c r="L99">
-        <v>3.8193018480492809</v>
+        <v>13.071895424836599</v>
       </c>
       <c r="M99">
-        <v>96.180698151950722</v>
+        <v>86.928104575163403</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>31.209776210857459</v>
       </c>
       <c r="O99">
-        <v>5.5610269100725418E-7</v>
+        <v>1.0870345734659279E-9</v>
       </c>
       <c r="P99" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B100">
-        <v>2215</v>
+        <v>46</v>
       </c>
       <c r="C100">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>2390</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>14336</v>
+        <v>4237</v>
       </c>
       <c r="F100">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="G100">
-        <v>14488</v>
+        <v>4275</v>
       </c>
       <c r="H100">
-        <v>0.92677824267782427</v>
+        <v>0.83636363636363631</v>
       </c>
       <c r="I100">
-        <v>12.65714285714286</v>
+        <v>5.1111111111111107</v>
       </c>
       <c r="J100">
-        <v>6.0619246861924676</v>
+        <v>77.727272727272734</v>
       </c>
       <c r="K100">
-        <v>4.9429872998343454</v>
+        <v>6.192982456140351</v>
       </c>
       <c r="L100">
-        <v>7.3221757322175733</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="M100">
-        <v>92.677824267782427</v>
+        <v>83.63636363636364</v>
       </c>
       <c r="N100">
-        <v>16.062108660117531</v>
+        <v>152.89011164274319</v>
       </c>
       <c r="O100">
-        <v>0.96178346872329712</v>
+        <v>7.7025558153920315E-10</v>
       </c>
       <c r="P100" t="s">
         <v>81</v>
@@ -5835,556 +6039,1083 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B101">
-        <v>748</v>
+        <v>1621</v>
       </c>
       <c r="C101">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D101">
-        <v>850</v>
+        <v>1688</v>
       </c>
       <c r="E101">
-        <v>10390</v>
+        <v>24969</v>
       </c>
       <c r="F101">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>10449</v>
+        <v>25014</v>
       </c>
       <c r="H101">
-        <v>0.88</v>
+        <v>0.96030805687203791</v>
       </c>
       <c r="I101">
-        <v>7.333333333333333</v>
+        <v>24.194029850746269</v>
       </c>
       <c r="J101">
-        <v>12.29294117647059</v>
+        <v>14.818720379146921</v>
       </c>
       <c r="K101">
-        <v>6.1093884582256672</v>
+        <v>5.9645798352922368</v>
       </c>
       <c r="L101">
-        <v>12</v>
+        <v>3.9691943127962079</v>
       </c>
       <c r="M101">
-        <v>88</v>
+        <v>96.030805687203795</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>8.2868762547150254E-5</v>
+        <v>8.1885173131013289E-6</v>
       </c>
       <c r="P101" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B102">
-        <v>741</v>
+        <v>5005</v>
       </c>
       <c r="C102">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="D102">
-        <v>766</v>
+        <v>5399</v>
       </c>
       <c r="E102">
-        <v>10281</v>
+        <v>79892</v>
       </c>
       <c r="F102">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="G102">
-        <v>10294</v>
+        <v>80108</v>
       </c>
       <c r="H102">
-        <v>0.96736292428198434</v>
+        <v>0.92702352287460643</v>
       </c>
       <c r="I102">
-        <v>29.64</v>
+        <v>12.703045685279189</v>
       </c>
       <c r="J102">
-        <v>13.43864229765013</v>
+        <v>14.83756251157622</v>
       </c>
       <c r="K102">
-        <v>5.8895473091121042</v>
+        <v>5.953038398162481</v>
       </c>
       <c r="L102">
-        <v>3.2637075718015671</v>
+        <v>7.2976477125393604</v>
       </c>
       <c r="M102">
-        <v>96.736292428198439</v>
+        <v>92.702352287460641</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>1.7870689816845699E-6</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>143</v>
+        <v>5.6142884119481102E-8</v>
+      </c>
+      <c r="P102" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B103">
-        <v>915</v>
+        <v>1579</v>
       </c>
       <c r="C103">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D103">
-        <v>991</v>
+        <v>1678</v>
       </c>
       <c r="E103">
-        <v>12825</v>
+        <v>23675</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G103">
-        <v>12875</v>
+        <v>23723</v>
       </c>
       <c r="H103">
-        <v>0.92330978809283548</v>
+        <v>0.94100119189511322</v>
       </c>
       <c r="I103">
-        <v>12.039473684210529</v>
+        <v>15.94949494949495</v>
       </c>
       <c r="J103">
-        <v>12.991927346115039</v>
+        <v>14.137663885578069</v>
       </c>
       <c r="K103">
-        <v>6.2310679611650484</v>
+        <v>5.9892087847236857</v>
       </c>
       <c r="L103">
-        <v>7.6690211907164478</v>
+        <v>5.8998808104886784</v>
       </c>
       <c r="M103">
-        <v>92.33097880928355</v>
+        <v>94.100119189511318</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103">
-        <v>9.6766516435309313E-6</v>
+        <v>1.516591652261923E-8</v>
       </c>
       <c r="P103" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B104">
-        <v>459</v>
+        <v>1901</v>
       </c>
       <c r="C104">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D104">
-        <v>507</v>
+        <v>1976</v>
       </c>
       <c r="E104">
-        <v>9204</v>
+        <v>31831</v>
       </c>
       <c r="F104">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>9224</v>
+        <v>31867</v>
       </c>
       <c r="H104">
-        <v>0.90532544378698221</v>
+        <v>0.96204453441295545</v>
       </c>
       <c r="I104">
-        <v>9.5625</v>
+        <v>25.346666666666671</v>
       </c>
       <c r="J104">
-        <v>18.19329388560158</v>
+        <v>16.127024291497971</v>
       </c>
       <c r="K104">
-        <v>6.2611665221162189</v>
+        <v>6.229736090626667</v>
       </c>
       <c r="L104">
-        <v>9.4674556213017755</v>
+        <v>3.7955465587044528</v>
       </c>
       <c r="M104">
-        <v>90.532544378698219</v>
+        <v>96.204453441295541</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>2.315605524927378E-5</v>
+        <v>2.718068614626645E-8</v>
       </c>
       <c r="P104" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B105">
-        <v>242</v>
+        <v>3313</v>
       </c>
       <c r="C105">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="D105">
-        <v>303</v>
+        <v>3551</v>
       </c>
       <c r="E105">
-        <v>9878</v>
+        <v>52120</v>
       </c>
       <c r="F105">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G105">
-        <v>9920</v>
+        <v>52241</v>
       </c>
       <c r="H105">
-        <v>0.79867986798679869</v>
+        <v>0.93297662630245004</v>
       </c>
       <c r="I105">
-        <v>3.9672131147540979</v>
+        <v>13.920168067226889</v>
       </c>
       <c r="J105">
-        <v>32.739273927392738</v>
+        <v>14.71163052661222</v>
       </c>
       <c r="K105">
-        <v>6.0848790322580646</v>
+        <v>6.0537317432667832</v>
       </c>
       <c r="L105">
-        <v>20.132013201320131</v>
+        <v>6.7023373697549991</v>
       </c>
       <c r="M105">
-        <v>79.867986798679866</v>
+        <v>93.297662630245</v>
       </c>
       <c r="N105">
-        <v>39.814489829527297</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>2.0323666831245649E-5</v>
+        <v>8.3866621025663335E-7</v>
       </c>
       <c r="P105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B106">
-        <v>535</v>
+        <v>4653</v>
       </c>
       <c r="C106">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="D106">
-        <v>577</v>
+        <v>5011</v>
       </c>
       <c r="E106">
-        <v>12595</v>
+        <v>77730</v>
       </c>
       <c r="F106">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="G106">
-        <v>12625</v>
+        <v>77992</v>
       </c>
       <c r="H106">
-        <v>0.92720970537261693</v>
+        <v>0.92855717421672324</v>
       </c>
       <c r="I106">
-        <v>12.738095238095241</v>
+        <v>12.997206703910621</v>
       </c>
       <c r="J106">
-        <v>21.880415944540729</v>
+        <v>15.564158850528839</v>
       </c>
       <c r="K106">
-        <v>5.9912079207920792</v>
+        <v>6.0057954662016613</v>
       </c>
       <c r="L106">
-        <v>7.2790294627383014</v>
+        <v>7.1442825783276804</v>
       </c>
       <c r="M106">
-        <v>92.720970537261692</v>
+        <v>92.855717421672324</v>
       </c>
       <c r="N106">
-        <v>15.236107397429519</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>5.8272755509847229E-9</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>143</v>
+        <v>3.3523442652949602E-6</v>
+      </c>
+      <c r="P106" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B107">
-        <v>1638</v>
+        <v>4262</v>
       </c>
       <c r="C107">
-        <v>173</v>
+        <v>473</v>
       </c>
       <c r="D107">
-        <v>1811</v>
+        <v>4735</v>
       </c>
       <c r="E107">
-        <v>31392</v>
+        <v>77642</v>
       </c>
       <c r="F107">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="G107">
-        <v>31498</v>
+        <v>77953</v>
       </c>
       <c r="H107">
-        <v>0.90447266703478746</v>
+        <v>0.90010559662090817</v>
       </c>
       <c r="I107">
-        <v>9.4682080924855487</v>
+        <v>9.0105708245243132</v>
       </c>
       <c r="J107">
-        <v>17.392600773053559</v>
+        <v>16.463146779303059</v>
       </c>
       <c r="K107">
-        <v>6.0153660549876182</v>
+        <v>6.0477467191769403</v>
       </c>
       <c r="L107">
-        <v>9.552733296521259</v>
+        <v>9.989440337909187</v>
       </c>
       <c r="M107">
-        <v>90.447266703478746</v>
+        <v>90.010559662090813</v>
       </c>
       <c r="N107">
-        <v>2.5523567585422602</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>8.7793551983850193E-8</v>
+        <v>2.2762367279938189E-6</v>
       </c>
       <c r="P107" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B108">
-        <v>2360</v>
+        <v>4387</v>
       </c>
       <c r="C108">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="D108">
-        <v>2758</v>
+        <v>4828</v>
       </c>
       <c r="E108">
-        <v>73332</v>
+        <v>82901</v>
       </c>
       <c r="F108">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="G108">
-        <v>73595</v>
+        <v>83085</v>
       </c>
       <c r="H108">
-        <v>0.85569253081943442</v>
+        <v>0.9086578293289147</v>
       </c>
       <c r="I108">
-        <v>5.9296482412060314</v>
+        <v>9.9478458049886616</v>
       </c>
       <c r="J108">
-        <v>26.684191443074688</v>
+        <v>17.20898922949462</v>
       </c>
       <c r="K108">
-        <v>6.2421496025545213</v>
+        <v>6.1167840163687792</v>
       </c>
       <c r="L108">
-        <v>14.43074691805656</v>
+        <v>9.1342170671085334</v>
       </c>
       <c r="M108">
-        <v>85.56925308194343</v>
+        <v>90.865782932891463</v>
       </c>
       <c r="N108">
-        <v>17.692379383797061</v>
+        <v>0</v>
       </c>
       <c r="O108">
-        <v>3.7403331134555629E-6</v>
+        <v>8.1893313108594157E-7</v>
       </c>
       <c r="P108" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B109">
-        <v>1361</v>
+        <v>2480</v>
       </c>
       <c r="C109">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D109">
-        <v>1403</v>
+        <v>2614</v>
       </c>
       <c r="E109">
-        <v>14829</v>
+        <v>33375</v>
       </c>
       <c r="F109">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="G109">
-        <v>14849</v>
+        <v>33473</v>
       </c>
       <c r="H109">
-        <v>0.97006414825374199</v>
+        <v>0.94873756694720734</v>
       </c>
       <c r="I109">
-        <v>32.404761904761912</v>
+        <v>18.507462686567159</v>
       </c>
       <c r="J109">
-        <v>10.583749109052031</v>
+        <v>12.8052792654935</v>
       </c>
       <c r="K109">
-        <v>5.9965654252811644</v>
+        <v>5.7691572312012669</v>
       </c>
       <c r="L109">
-        <v>2.9935851746258022</v>
+        <v>5.1262433052792664</v>
       </c>
       <c r="M109">
-        <v>97.006414825374193</v>
+        <v>94.87375669472074</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>0.47088711942711831</v>
       </c>
       <c r="O109">
-        <v>2.256319646676275E-7</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>143</v>
+        <v>2.8610602953449421E-7</v>
+      </c>
+      <c r="P109" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B110">
-        <v>5738</v>
+        <v>9812</v>
       </c>
       <c r="C110">
-        <v>628</v>
+        <v>510</v>
       </c>
       <c r="D110">
-        <v>6366</v>
+        <v>10322</v>
       </c>
       <c r="E110">
-        <v>162835</v>
+        <v>85071</v>
       </c>
       <c r="F110">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="G110">
-        <v>163224</v>
+        <v>85375</v>
       </c>
       <c r="H110">
-        <v>0.90135092679861761</v>
+        <v>0.95059097074210419</v>
       </c>
       <c r="I110">
-        <v>9.1369426751592364</v>
+        <v>19.239215686274509</v>
       </c>
       <c r="J110">
-        <v>25.639962299717251</v>
+        <v>8.2711683782212742</v>
       </c>
       <c r="K110">
-        <v>5.7628228691859036</v>
+        <v>5.7430278184480237</v>
       </c>
       <c r="L110">
-        <v>9.8649073201382347</v>
+        <v>4.9409029257895751</v>
       </c>
       <c r="M110">
-        <v>90.135092679861771</v>
+        <v>95.059097074210428</v>
       </c>
       <c r="N110">
-        <v>34.22389283271832</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>8.5268219152112579E-8</v>
+        <v>2.470292201905977E-5</v>
       </c>
       <c r="P110" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B111">
-        <v>6550</v>
+        <v>2215</v>
       </c>
       <c r="C111">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="D111">
-        <v>7100</v>
+        <v>2390</v>
       </c>
       <c r="E111">
-        <v>99468</v>
+        <v>14336</v>
       </c>
       <c r="F111">
-        <v>326</v>
+        <v>152</v>
       </c>
       <c r="G111">
-        <v>99794</v>
+        <v>14488</v>
       </c>
       <c r="H111">
-        <v>0.92253521126760563</v>
+        <v>0.92677824267782427</v>
       </c>
       <c r="I111">
-        <v>11.90909090909091</v>
+        <v>12.65714285714286</v>
       </c>
       <c r="J111">
-        <v>14.05549295774648</v>
+        <v>6.0619246861924676</v>
       </c>
       <c r="K111">
-        <v>5.6268012104936167</v>
+        <v>4.9429872998343454</v>
       </c>
       <c r="L111">
-        <v>7.7464788732394361</v>
+        <v>7.3221757322175733</v>
       </c>
       <c r="M111">
-        <v>92.25352112676056</v>
+        <v>92.677824267782427</v>
       </c>
       <c r="N111">
-        <v>9.453097988137273</v>
+        <v>16.062108660117531</v>
       </c>
       <c r="O111">
-        <v>9.9177600532129873E-7</v>
+        <v>0.96178346872329712</v>
       </c>
       <c r="P111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="P112" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="P113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="P114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="P115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="P116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="P117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="P118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>152</v>
+      </c>
+      <c r="P119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="P120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>154</v>
+      </c>
+      <c r="P121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>155</v>
+      </c>
+      <c r="P122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>156</v>
+      </c>
+      <c r="P123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>157</v>
+      </c>
+      <c r="P124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="P125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="P126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>160</v>
+      </c>
+      <c r="P127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>161</v>
+      </c>
+      <c r="P128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>162</v>
+      </c>
+      <c r="P129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>163</v>
+      </c>
+      <c r="P130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>164</v>
+      </c>
+      <c r="P131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>165</v>
+      </c>
+      <c r="P132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>166</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>167</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>169</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>171</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>172</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>175</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>176</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>177</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>178</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>179</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>181</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>182</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>183</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>184</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>185</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>186</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>190</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>191</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>193</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>196</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>197</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>198</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>199</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>201</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>203</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>204</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>205</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>206</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>207</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>208</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>209</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="P1:P176"/>
+  <sortState ref="A2:P176">
+    <sortCondition ref="P2:P176"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:P5 A7:P111 A6:O6 A176:O176 A112:O112 A113:O113 A114:O114 A115:O115 A116:O116 A117:O117 A118:O118 A119:O119 A120:O120 A121:O121 A122:O122 A123:O123 A124:O124 A125:O125 A126:O126 A127:O127 A128:O128 A129:O129 A130:O130 A131:O131 A132:O132 A133:P133 A134:O134 A135:O135 A136:O136 A137:O137 A138:O138 A139:O139 A140:O140 A141:O141 A142:O142 A143:O143 A144:O144 A145:O145 A146:O146 A147:O147 A148:O148 A149:O149 A150:O150 A151:O151 A152:O152 A153:O153 A154:O154 A155:O155 A156:O156 A157:O157 A158:O158 A159:O159 A160:O160 A161:O161 A162:O162 A163:O163 A164:O164 A165:O165 A166:O166 A167:O167 A168:O168 A169:O169 A170:O170 A171:O171 A172:O172 A173:O173 A174:O174 A175:O175" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>